--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111307811</v>
+        <v>111310603</v>
       </c>
       <c r="B7" t="n">
-        <v>89686</v>
+        <v>89755</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,25 +1272,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>1506</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>590640.5765326766</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R7" t="n">
-        <v>7040250.677298564</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1361,22 +1361,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111309000</v>
+        <v>111309019</v>
       </c>
       <c r="B8" t="n">
-        <v>94134</v>
+        <v>89665</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1389,21 +1389,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111308963</v>
+        <v>111305206</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1498,25 +1498,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>590582.1749845718</v>
+        <v>590706.3868867881</v>
       </c>
       <c r="R9" t="n">
-        <v>7040273.16502161</v>
+        <v>7040581.651012956</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1599,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111306233</v>
+        <v>111308352</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,21 +1615,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>590615.2976031969</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R10" t="n">
-        <v>7040415.40842591</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111320029</v>
+        <v>111310353</v>
       </c>
       <c r="B11" t="n">
         <v>89686</v>
@@ -1746,19 +1746,20 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>590688.7415075897</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R11" t="n">
-        <v>7040619.60176132</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1812,19 +1813,19 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111311225</v>
+        <v>111320026</v>
       </c>
       <c r="B12" t="n">
         <v>89686</v>
@@ -1858,20 +1859,19 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>590720.7464700924</v>
+        <v>590728.1019840735</v>
       </c>
       <c r="R12" t="n">
-        <v>7040454.625792346</v>
+        <v>7040573.773426552</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1925,22 +1925,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111308822</v>
+        <v>111309827</v>
       </c>
       <c r="B13" t="n">
-        <v>89665</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1953,21 +1953,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>73</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1978,13 +1978,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>590571.6374187953</v>
+        <v>590614.0068928505</v>
       </c>
       <c r="R13" t="n">
-        <v>7040376.160066846</v>
+        <v>7040350.534422184</v>
       </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2038,22 +2038,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111310362</v>
+        <v>111311410</v>
       </c>
       <c r="B14" t="n">
-        <v>89369</v>
+        <v>56543</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2062,42 +2062,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>103021</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>590571.6374187953</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R14" t="n">
-        <v>7040376.160066846</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2151,22 +2156,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111304897</v>
+        <v>111311509</v>
       </c>
       <c r="B15" t="n">
-        <v>89845</v>
+        <v>78611</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2175,25 +2180,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>6463</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2204,10 +2209,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>590678.899579621</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R15" t="n">
-        <v>7040619.321836494</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2234,7 +2239,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2244,7 +2249,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2276,10 +2281,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111320026</v>
+        <v>111306233</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2292,37 +2297,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>590728.1019840735</v>
+        <v>590615.2976031969</v>
       </c>
       <c r="R16" t="n">
-        <v>7040573.773426552</v>
+        <v>7040415.40842591</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2376,22 +2382,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111308121</v>
+        <v>111311816</v>
       </c>
       <c r="B17" t="n">
-        <v>90187</v>
+        <v>89845</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2400,25 +2406,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2014</v>
+        <v>1209</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2429,10 +2435,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>590607.2776005382</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R17" t="n">
-        <v>7040256.438550681</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2459,7 +2465,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2469,17 +2475,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Gammal fruktkropp</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2506,10 +2507,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111308996</v>
+        <v>111310897</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2522,21 +2523,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2547,10 +2548,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590567.9278508583</v>
+        <v>590681.7124013144</v>
       </c>
       <c r="R18" t="n">
-        <v>7040301.826193022</v>
+        <v>7040473.189748496</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2619,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111310942</v>
+        <v>111308178</v>
       </c>
       <c r="B19" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2631,25 +2632,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2661,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590675.2966033132</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R19" t="n">
-        <v>7040478.372989829</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2695,7 +2696,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2705,7 +2706,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2732,10 +2733,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111311281</v>
+        <v>111311377</v>
       </c>
       <c r="B20" t="n">
-        <v>89686</v>
+        <v>90065</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2744,25 +2745,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>658</v>
+        <v>898</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2773,10 +2774,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>590689.600060009</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R20" t="n">
-        <v>7040479.226922397</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2845,10 +2846,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111305920</v>
+        <v>111307811</v>
       </c>
       <c r="B21" t="n">
-        <v>89425</v>
+        <v>89686</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2861,21 +2862,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5442</v>
+        <v>658</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2886,10 +2887,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590734.7799036079</v>
+        <v>590640.5765326766</v>
       </c>
       <c r="R21" t="n">
-        <v>7040527.908902652</v>
+        <v>7040250.677298564</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2958,10 +2959,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111308178</v>
+        <v>111311225</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2974,21 +2975,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2999,10 +3000,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>590604.1361025569</v>
+        <v>590720.7464700924</v>
       </c>
       <c r="R22" t="n">
-        <v>7040272.447424728</v>
+        <v>7040454.625792346</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3071,10 +3072,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111308229</v>
+        <v>111308434</v>
       </c>
       <c r="B23" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3087,21 +3088,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3112,10 +3113,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>590604.1361025569</v>
+        <v>590592.3607059828</v>
       </c>
       <c r="R23" t="n">
-        <v>7040272.447424728</v>
+        <v>7040261.380789872</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3184,7 +3185,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111308527</v>
+        <v>111305463</v>
       </c>
       <c r="B24" t="n">
         <v>89686</v>
@@ -3225,13 +3226,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>590571.6374187953</v>
+        <v>590730.310987493</v>
       </c>
       <c r="R24" t="n">
-        <v>7040376.160066846</v>
+        <v>7040559.081015749</v>
       </c>
       <c r="S24" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3260,7 +3261,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3270,7 +3271,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3285,22 +3286,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111308352</v>
+        <v>111310228</v>
       </c>
       <c r="B25" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3313,21 +3314,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3338,10 +3339,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>590604.1361025569</v>
+        <v>590617.0527943866</v>
       </c>
       <c r="R25" t="n">
-        <v>7040272.447424728</v>
+        <v>7040369.401581543</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3373,7 +3374,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3383,7 +3384,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3410,10 +3416,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111311190</v>
+        <v>111304960</v>
       </c>
       <c r="B26" t="n">
-        <v>56543</v>
+        <v>89686</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3426,43 +3432,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>590571.6374187953</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R26" t="n">
-        <v>7040376.160066846</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3516,22 +3517,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111308434</v>
+        <v>111311113</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>89369</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3540,25 +3541,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3569,13 +3570,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>590592.3607059828</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R27" t="n">
-        <v>7040261.380789872</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3629,12 +3630,12 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -3754,7 +3755,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111305463</v>
+        <v>111311518</v>
       </c>
       <c r="B29" t="n">
         <v>89686</v>
@@ -3795,10 +3796,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>590730.310987493</v>
+        <v>590714.4880980195</v>
       </c>
       <c r="R29" t="n">
-        <v>7040559.081015749</v>
+        <v>7040485.747725119</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3825,7 +3826,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3835,7 +3836,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3867,10 +3868,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111320028</v>
+        <v>111320024</v>
       </c>
       <c r="B30" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3883,21 +3884,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3979,10 +3980,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111320027</v>
+        <v>111311029</v>
       </c>
       <c r="B31" t="n">
-        <v>89686</v>
+        <v>89590</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3991,41 +3992,42 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590668.9787260931</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R31" t="n">
-        <v>7040606.073147954</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4079,19 +4081,19 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111308280</v>
+        <v>111320022</v>
       </c>
       <c r="B32" t="n">
         <v>94134</v>
@@ -4125,20 +4127,19 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590599.2495874113</v>
+        <v>590681.5329159837</v>
       </c>
       <c r="R32" t="n">
-        <v>7040255.316109447</v>
+        <v>7040621.185216802</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4192,19 +4193,19 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111304912</v>
+        <v>111305042</v>
       </c>
       <c r="B33" t="n">
         <v>89405</v>
@@ -4245,10 +4246,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590678.899579621</v>
+        <v>590677.0058343092</v>
       </c>
       <c r="R33" t="n">
-        <v>7040619.321836494</v>
+        <v>7040607.195673673</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4317,10 +4318,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111305036</v>
+        <v>111308196</v>
       </c>
       <c r="B34" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4329,25 +4330,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4358,10 +4359,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>590677.0058343092</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R34" t="n">
-        <v>7040607.195673673</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4430,10 +4431,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111304909</v>
+        <v>111308606</v>
       </c>
       <c r="B35" t="n">
-        <v>89686</v>
+        <v>78579</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4446,21 +4447,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>658</v>
+        <v>2081</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4471,13 +4472,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>590678.899579621</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R35" t="n">
-        <v>7040619.321836494</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4516,7 +4517,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4531,22 +4532,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111320022</v>
+        <v>111320027</v>
       </c>
       <c r="B36" t="n">
-        <v>94134</v>
+        <v>89686</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4559,21 +4560,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53</v>
+        <v>658</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4583,10 +4584,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>590681.5329159837</v>
+        <v>590668.9787260931</v>
       </c>
       <c r="R36" t="n">
-        <v>7040621.185216802</v>
+        <v>7040606.073147954</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4655,10 +4656,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111308530</v>
+        <v>111310108</v>
       </c>
       <c r="B37" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4671,21 +4672,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4731,7 +4732,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4741,7 +4742,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4768,10 +4769,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111311410</v>
+        <v>111312274</v>
       </c>
       <c r="B38" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4784,40 +4785,35 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>590706.4606926481</v>
+        <v>590719.8000455381</v>
       </c>
       <c r="R38" t="n">
-        <v>7040484.625072884</v>
+        <v>7040613.7784966</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4844,7 +4840,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4854,7 +4850,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4886,10 +4882,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111305012</v>
+        <v>111311401</v>
       </c>
       <c r="B39" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4898,25 +4894,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4927,10 +4923,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>590677.6718517016</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R39" t="n">
-        <v>7040615.262823105</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4999,10 +4995,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111308600</v>
+        <v>111310220</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5015,21 +5011,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5075,7 +5071,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5085,7 +5081,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5112,10 +5108,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111308606</v>
+        <v>111320028</v>
       </c>
       <c r="B41" t="n">
-        <v>78579</v>
+        <v>89686</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5128,38 +5124,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2081</v>
+        <v>658</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>590571.6374187953</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R41" t="n">
-        <v>7040376.160066846</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S41" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5188,7 +5183,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5198,7 +5193,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5213,19 +5208,19 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111312274</v>
+        <v>111311065</v>
       </c>
       <c r="B42" t="n">
         <v>89405</v>
@@ -5266,10 +5261,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>590719.8000455381</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R42" t="n">
-        <v>7040613.7784966</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5296,7 +5291,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5306,7 +5301,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5338,10 +5333,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111311401</v>
+        <v>111310851</v>
       </c>
       <c r="B43" t="n">
-        <v>89686</v>
+        <v>89558</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5350,25 +5345,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>658</v>
+        <v>1503</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5379,13 +5374,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>590706.4606926481</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R43" t="n">
-        <v>7040484.625072884</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5439,22 +5434,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111311029</v>
+        <v>111320023</v>
       </c>
       <c r="B44" t="n">
-        <v>89590</v>
+        <v>89405</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5463,42 +5458,41 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>48</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>590702.9273836177</v>
+        <v>590674.5556983197</v>
       </c>
       <c r="R44" t="n">
-        <v>7040451.435986779</v>
+        <v>7040630.376315817</v>
       </c>
       <c r="S44" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5552,22 +5546,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111310603</v>
+        <v>111308121</v>
       </c>
       <c r="B45" t="n">
-        <v>89755</v>
+        <v>90187</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5576,25 +5570,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1506</v>
+        <v>2014</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5605,13 +5599,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>590571.6374187953</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R45" t="n">
-        <v>7040376.160066846</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5651,6 +5645,11 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Gammal fruktkropp</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5665,22 +5664,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111305206</v>
+        <v>111309710</v>
       </c>
       <c r="B46" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5689,25 +5688,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5718,13 +5717,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>590706.3868867881</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R46" t="n">
-        <v>7040581.651012956</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5778,22 +5777,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111320025</v>
+        <v>111309000</v>
       </c>
       <c r="B47" t="n">
-        <v>89845</v>
+        <v>94134</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5802,41 +5801,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1209</v>
+        <v>53</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>590670.6438133246</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R47" t="n">
-        <v>7040626.240984956</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5890,19 +5890,19 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111311065</v>
+        <v>111308530</v>
       </c>
       <c r="B48" t="n">
         <v>89405</v>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>590702.9273836177</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R48" t="n">
-        <v>7040451.435986779</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6003,22 +6003,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111310220</v>
+        <v>111311395</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6031,21 +6031,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6056,13 +6056,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>590571.6374187953</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R49" t="n">
-        <v>7040376.160066846</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6116,22 +6116,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111310851</v>
+        <v>111310942</v>
       </c>
       <c r="B50" t="n">
-        <v>89558</v>
+        <v>89845</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6144,21 +6144,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1503</v>
+        <v>1209</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6169,13 +6169,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>590571.6374187953</v>
+        <v>590675.2966033132</v>
       </c>
       <c r="R50" t="n">
-        <v>7040376.160066846</v>
+        <v>7040478.372989829</v>
       </c>
       <c r="S50" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6229,22 +6229,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111310228</v>
+        <v>111307637</v>
       </c>
       <c r="B51" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6257,21 +6257,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6282,10 +6282,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>590617.0527943866</v>
+        <v>590658.1836587854</v>
       </c>
       <c r="R51" t="n">
-        <v>7040369.401581543</v>
+        <v>7040277.113733714</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6327,12 +6327,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:34</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6359,10 +6354,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111311377</v>
+        <v>111308963</v>
       </c>
       <c r="B52" t="n">
-        <v>90065</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6371,25 +6366,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>898</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6400,10 +6395,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>590706.4606926481</v>
+        <v>590582.1749845718</v>
       </c>
       <c r="R52" t="n">
-        <v>7040484.625072884</v>
+        <v>7040273.16502161</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6435,7 +6430,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6445,7 +6440,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6472,7 +6467,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111310897</v>
+        <v>111307853</v>
       </c>
       <c r="B53" t="n">
         <v>89405</v>
@@ -6513,10 +6508,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>590681.7124013144</v>
+        <v>590640.5765326766</v>
       </c>
       <c r="R53" t="n">
-        <v>7040473.189748496</v>
+        <v>7040250.677298564</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6548,7 +6543,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6558,7 +6553,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6585,10 +6580,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111311395</v>
+        <v>111308229</v>
       </c>
       <c r="B54" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6601,21 +6596,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6626,10 +6621,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>590706.4606926481</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R54" t="n">
-        <v>7040484.625072884</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6698,10 +6693,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111309827</v>
+        <v>111311036</v>
       </c>
       <c r="B55" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6714,21 +6709,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6739,10 +6734,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>590614.0068928505</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R55" t="n">
-        <v>7040350.534422184</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6774,7 +6769,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6784,7 +6779,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6811,10 +6806,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111311036</v>
+        <v>111305920</v>
       </c>
       <c r="B56" t="n">
-        <v>89686</v>
+        <v>89425</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6827,21 +6822,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>658</v>
+        <v>5442</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6852,10 +6847,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>590702.9273836177</v>
+        <v>590734.7799036079</v>
       </c>
       <c r="R56" t="n">
-        <v>7040451.435986779</v>
+        <v>7040527.908902652</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6924,10 +6919,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111311518</v>
+        <v>111305012</v>
       </c>
       <c r="B57" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6936,25 +6931,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6965,10 +6960,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>590714.4880980195</v>
+        <v>590677.6718517016</v>
       </c>
       <c r="R57" t="n">
-        <v>7040485.747725119</v>
+        <v>7040615.262823105</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -6995,7 +6990,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7005,7 +7000,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7037,10 +7032,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111311509</v>
+        <v>111320025</v>
       </c>
       <c r="B58" t="n">
-        <v>78611</v>
+        <v>89845</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7049,42 +7044,41 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6463</v>
+        <v>1209</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>590706.4606926481</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R58" t="n">
-        <v>7040484.625072884</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7108,7 +7102,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7118,7 +7112,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7138,22 +7132,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111305042</v>
+        <v>111320029</v>
       </c>
       <c r="B59" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7166,38 +7160,37 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>590677.0058343092</v>
+        <v>590688.7415075897</v>
       </c>
       <c r="R59" t="n">
-        <v>7040607.195673673</v>
+        <v>7040619.60176132</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7251,22 +7244,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111307853</v>
+        <v>111308996</v>
       </c>
       <c r="B60" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7279,21 +7272,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7304,10 +7297,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>590640.5765326766</v>
+        <v>590567.9278508583</v>
       </c>
       <c r="R60" t="n">
-        <v>7040250.677298564</v>
+        <v>7040301.826193022</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7339,7 +7332,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7349,7 +7342,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7376,10 +7369,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111308194</v>
+        <v>111308280</v>
       </c>
       <c r="B61" t="n">
-        <v>78612</v>
+        <v>94134</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7388,25 +7381,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6464</v>
+        <v>53</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7417,10 +7410,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>590607.2776005382</v>
+        <v>590599.2495874113</v>
       </c>
       <c r="R61" t="n">
-        <v>7040256.438550681</v>
+        <v>7040255.316109447</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7489,10 +7482,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111307637</v>
+        <v>111305036</v>
       </c>
       <c r="B62" t="n">
-        <v>94134</v>
+        <v>89845</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7501,25 +7494,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>53</v>
+        <v>1209</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7530,10 +7523,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>590658.1836587854</v>
+        <v>590677.0058343092</v>
       </c>
       <c r="R62" t="n">
-        <v>7040277.113733714</v>
+        <v>7040607.195673673</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7602,7 +7595,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111320024</v>
+        <v>111304912</v>
       </c>
       <c r="B63" t="n">
         <v>89405</v>
@@ -7636,19 +7629,20 @@
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>590670.6438133246</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R63" t="n">
-        <v>7040626.240984956</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S63" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7702,22 +7696,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111310108</v>
+        <v>111308194</v>
       </c>
       <c r="B64" t="n">
-        <v>89425</v>
+        <v>78612</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7726,25 +7720,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5442</v>
+        <v>6464</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7755,13 +7749,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>590571.6374187953</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R64" t="n">
-        <v>7040376.160066846</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S64" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7815,22 +7809,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111308196</v>
+        <v>111311281</v>
       </c>
       <c r="B65" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7843,21 +7837,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7868,10 +7862,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>590607.2776005382</v>
+        <v>590689.600060009</v>
       </c>
       <c r="R65" t="n">
-        <v>7040256.438550681</v>
+        <v>7040479.226922397</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7940,10 +7934,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111320023</v>
+        <v>111311190</v>
       </c>
       <c r="B66" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7956,37 +7950,43 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>590674.5556983197</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R66" t="n">
-        <v>7040630.376315817</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S66" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8040,12 +8040,12 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>

--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111310603</v>
+        <v>111320027</v>
       </c>
       <c r="B7" t="n">
-        <v>89755</v>
+        <v>89686</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,42 +1272,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1506</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>590571.6374187953</v>
+        <v>590668.9787260931</v>
       </c>
       <c r="R7" t="n">
-        <v>7040376.160066846</v>
+        <v>7040606.073147954</v>
       </c>
       <c r="S7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1361,22 +1360,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111309019</v>
+        <v>111308600</v>
       </c>
       <c r="B8" t="n">
-        <v>89665</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1389,21 +1388,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1449,7 +1448,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1459,7 +1458,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1486,10 +1485,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111305206</v>
+        <v>111308196</v>
       </c>
       <c r="B9" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1498,25 +1497,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1527,10 +1526,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>590706.3868867881</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R9" t="n">
-        <v>7040581.651012956</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1599,10 +1598,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111308352</v>
+        <v>111305036</v>
       </c>
       <c r="B10" t="n">
-        <v>94134</v>
+        <v>89845</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1611,25 +1610,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1639,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>590604.1361025569</v>
+        <v>590677.0058343092</v>
       </c>
       <c r="R10" t="n">
-        <v>7040272.447424728</v>
+        <v>7040607.195673673</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1825,10 +1824,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111320026</v>
+        <v>111311395</v>
       </c>
       <c r="B12" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1841,37 +1840,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>590728.1019840735</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R12" t="n">
-        <v>7040573.773426552</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1925,22 +1925,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111309827</v>
+        <v>111311377</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>90065</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,25 +1949,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>590614.0068928505</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R13" t="n">
-        <v>7040350.534422184</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2050,10 +2050,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111311410</v>
+        <v>111320026</v>
       </c>
       <c r="B14" t="n">
-        <v>56543</v>
+        <v>89686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2066,43 +2066,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>590706.4606926481</v>
+        <v>590728.1019840735</v>
       </c>
       <c r="R14" t="n">
-        <v>7040484.625072884</v>
+        <v>7040573.773426552</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2156,22 +2150,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111311509</v>
+        <v>111309000</v>
       </c>
       <c r="B15" t="n">
-        <v>78611</v>
+        <v>94134</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2180,25 +2174,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6463</v>
+        <v>53</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2209,13 +2203,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>590706.4606926481</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R15" t="n">
-        <v>7040484.625072884</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2239,7 +2233,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2249,7 +2243,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2269,22 +2263,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111306233</v>
+        <v>111308963</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2297,21 +2291,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2322,10 +2316,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>590615.2976031969</v>
+        <v>590582.1749845718</v>
       </c>
       <c r="R16" t="n">
-        <v>7040415.40842591</v>
+        <v>7040273.16502161</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2357,7 +2351,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2367,7 +2361,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2394,10 +2388,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111311816</v>
+        <v>111320022</v>
       </c>
       <c r="B17" t="n">
-        <v>89845</v>
+        <v>94134</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2406,42 +2400,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1209</v>
+        <v>53</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>590678.899579621</v>
+        <v>590681.5329159837</v>
       </c>
       <c r="R17" t="n">
-        <v>7040619.321836494</v>
+        <v>7040621.185216802</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2465,7 +2458,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2475,7 +2468,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2495,22 +2488,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111310897</v>
+        <v>111308194</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>78612</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2519,25 +2512,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>6464</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2548,10 +2541,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590681.7124013144</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R18" t="n">
-        <v>7040473.189748496</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2583,7 +2576,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2593,7 +2586,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2620,10 +2613,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111308178</v>
+        <v>111311036</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,21 +2629,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2661,10 +2654,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590604.1361025569</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R19" t="n">
-        <v>7040272.447424728</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2733,10 +2726,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111311377</v>
+        <v>111311065</v>
       </c>
       <c r="B20" t="n">
-        <v>90065</v>
+        <v>89405</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2745,25 +2738,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>898</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2774,10 +2767,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>590706.4606926481</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R20" t="n">
-        <v>7040484.625072884</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2846,10 +2839,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111307811</v>
+        <v>111309827</v>
       </c>
       <c r="B21" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2862,21 +2855,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2887,10 +2880,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590640.5765326766</v>
+        <v>590614.0068928505</v>
       </c>
       <c r="R21" t="n">
-        <v>7040250.677298564</v>
+        <v>7040350.534422184</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2922,7 +2915,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2932,7 +2925,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2959,7 +2952,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111311225</v>
+        <v>111305463</v>
       </c>
       <c r="B22" t="n">
         <v>89686</v>
@@ -3000,10 +2993,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>590720.7464700924</v>
+        <v>590730.310987493</v>
       </c>
       <c r="R22" t="n">
-        <v>7040454.625792346</v>
+        <v>7040559.081015749</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3072,10 +3065,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111308434</v>
+        <v>111311410</v>
       </c>
       <c r="B23" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3088,35 +3081,40 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>590592.3607059828</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R23" t="n">
-        <v>7040261.380789872</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3185,7 +3183,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111305463</v>
+        <v>111311518</v>
       </c>
       <c r="B24" t="n">
         <v>89686</v>
@@ -3226,10 +3224,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>590730.310987493</v>
+        <v>590714.4880980195</v>
       </c>
       <c r="R24" t="n">
-        <v>7040559.081015749</v>
+        <v>7040485.747725119</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3256,7 +3254,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3266,7 +3264,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3298,10 +3296,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111310228</v>
+        <v>111307811</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3314,21 +3312,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3339,10 +3337,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>590617.0527943866</v>
+        <v>590640.5765326766</v>
       </c>
       <c r="R25" t="n">
-        <v>7040369.401581543</v>
+        <v>7040250.677298564</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3374,7 +3372,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3384,12 +3382,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:34</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3416,10 +3409,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111304960</v>
+        <v>111308530</v>
       </c>
       <c r="B26" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3432,21 +3425,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3457,13 +3450,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>590678.899579621</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R26" t="n">
-        <v>7040619.321836494</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3492,7 +3485,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3502,7 +3495,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3517,22 +3510,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111311113</v>
+        <v>111310220</v>
       </c>
       <c r="B27" t="n">
-        <v>89369</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3541,25 +3534,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3642,10 +3635,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111307902</v>
+        <v>111304909</v>
       </c>
       <c r="B28" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3658,21 +3651,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3683,10 +3676,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>590642.5312889211</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R28" t="n">
-        <v>7040244.919611955</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3755,10 +3748,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111311518</v>
+        <v>111311113</v>
       </c>
       <c r="B29" t="n">
-        <v>89686</v>
+        <v>89369</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3767,25 +3760,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>5447</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3796,13 +3789,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>590714.4880980195</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R29" t="n">
-        <v>7040485.747725119</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3826,7 +3819,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3836,7 +3829,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3856,22 +3849,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111320024</v>
+        <v>111310108</v>
       </c>
       <c r="B30" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3884,37 +3877,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590670.6438133246</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R30" t="n">
-        <v>7040626.240984956</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3968,22 +3962,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111311029</v>
+        <v>111305920</v>
       </c>
       <c r="B31" t="n">
-        <v>89590</v>
+        <v>89425</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3992,25 +3986,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>48</v>
+        <v>5442</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4021,10 +4015,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590702.9273836177</v>
+        <v>590734.7799036079</v>
       </c>
       <c r="R31" t="n">
-        <v>7040451.435986779</v>
+        <v>7040527.908902652</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4093,10 +4087,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111320022</v>
+        <v>111305206</v>
       </c>
       <c r="B32" t="n">
-        <v>94134</v>
+        <v>89845</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4105,41 +4099,42 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>53</v>
+        <v>1209</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590681.5329159837</v>
+        <v>590706.3868867881</v>
       </c>
       <c r="R32" t="n">
-        <v>7040621.185216802</v>
+        <v>7040581.651012956</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4193,22 +4188,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111305042</v>
+        <v>111307637</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>94134</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4221,21 +4216,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4246,10 +4241,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590677.0058343092</v>
+        <v>590658.1836587854</v>
       </c>
       <c r="R33" t="n">
-        <v>7040607.195673673</v>
+        <v>7040277.113733714</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4318,10 +4313,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111308196</v>
+        <v>111310942</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4330,25 +4325,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4359,10 +4354,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>590607.2776005382</v>
+        <v>590675.2966033132</v>
       </c>
       <c r="R34" t="n">
-        <v>7040256.438550681</v>
+        <v>7040478.372989829</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4394,7 +4389,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4404,7 +4399,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4431,10 +4426,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111308606</v>
+        <v>111310897</v>
       </c>
       <c r="B35" t="n">
-        <v>78579</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4447,21 +4442,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4472,13 +4467,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>590571.6374187953</v>
+        <v>590681.7124013144</v>
       </c>
       <c r="R35" t="n">
-        <v>7040376.160066846</v>
+        <v>7040473.189748496</v>
       </c>
       <c r="S35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4507,7 +4502,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4517,7 +4512,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4532,22 +4527,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111320027</v>
+        <v>111305012</v>
       </c>
       <c r="B36" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4556,41 +4551,42 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>590668.9787260931</v>
+        <v>590677.6718517016</v>
       </c>
       <c r="R36" t="n">
-        <v>7040606.073147954</v>
+        <v>7040615.262823105</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4644,22 +4640,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111310108</v>
+        <v>111311225</v>
       </c>
       <c r="B37" t="n">
-        <v>89425</v>
+        <v>89686</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4672,21 +4668,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5442</v>
+        <v>658</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4697,13 +4693,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>590571.6374187953</v>
+        <v>590720.7464700924</v>
       </c>
       <c r="R37" t="n">
-        <v>7040376.160066846</v>
+        <v>7040454.625792346</v>
       </c>
       <c r="S37" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4757,22 +4753,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111312274</v>
+        <v>111311816</v>
       </c>
       <c r="B38" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4781,25 +4777,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4810,10 +4806,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>590719.8000455381</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R38" t="n">
-        <v>7040613.7784966</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4882,10 +4878,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111311401</v>
+        <v>111310228</v>
       </c>
       <c r="B39" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4898,21 +4894,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4923,10 +4919,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>590706.4606926481</v>
+        <v>590617.0527943866</v>
       </c>
       <c r="R39" t="n">
-        <v>7040484.625072884</v>
+        <v>7040369.401581543</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4958,7 +4954,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4968,7 +4964,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4995,10 +4996,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111310220</v>
+        <v>111311029</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>89590</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5007,25 +5008,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>48</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5036,13 +5037,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>590571.6374187953</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R40" t="n">
-        <v>7040376.160066846</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S40" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5096,22 +5097,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111320028</v>
+        <v>111308822</v>
       </c>
       <c r="B41" t="n">
-        <v>89686</v>
+        <v>89665</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5124,37 +5125,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>658</v>
+        <v>73</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>590670.6438133246</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R41" t="n">
-        <v>7040626.240984956</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5208,22 +5210,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111311065</v>
+        <v>111308307</v>
       </c>
       <c r="B42" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5236,21 +5238,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5261,10 +5263,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>590702.9273836177</v>
+        <v>590592.3607059828</v>
       </c>
       <c r="R42" t="n">
-        <v>7040451.435986779</v>
+        <v>7040261.380789872</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5333,10 +5335,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111310851</v>
+        <v>111307853</v>
       </c>
       <c r="B43" t="n">
-        <v>89558</v>
+        <v>89405</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5345,25 +5347,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1503</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5374,13 +5376,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>590571.6374187953</v>
+        <v>590640.5765326766</v>
       </c>
       <c r="R43" t="n">
-        <v>7040376.160066846</v>
+        <v>7040250.677298564</v>
       </c>
       <c r="S43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5434,19 +5436,19 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111320023</v>
+        <v>111304912</v>
       </c>
       <c r="B44" t="n">
         <v>89405</v>
@@ -5480,19 +5482,20 @@
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>590674.5556983197</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R44" t="n">
-        <v>7040630.376315817</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5546,22 +5549,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111308121</v>
+        <v>111312274</v>
       </c>
       <c r="B45" t="n">
-        <v>90187</v>
+        <v>89405</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5574,21 +5577,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2014</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5599,10 +5602,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>590607.2776005382</v>
+        <v>590719.8000455381</v>
       </c>
       <c r="R45" t="n">
-        <v>7040256.438550681</v>
+        <v>7040613.7784966</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5629,7 +5632,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5639,17 +5642,12 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Gammal fruktkropp</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5676,7 +5674,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111309710</v>
+        <v>111308996</v>
       </c>
       <c r="B46" t="n">
         <v>78578</v>
@@ -5717,13 +5715,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>590571.6374187953</v>
+        <v>590567.9278508583</v>
       </c>
       <c r="R46" t="n">
-        <v>7040376.160066846</v>
+        <v>7040301.826193022</v>
       </c>
       <c r="S46" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5752,7 +5750,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5762,7 +5760,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5777,22 +5775,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111309000</v>
+        <v>111320025</v>
       </c>
       <c r="B47" t="n">
-        <v>94134</v>
+        <v>89845</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5801,42 +5799,41 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>53</v>
+        <v>1209</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>590571.6374187953</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R47" t="n">
-        <v>7040376.160066846</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S47" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5890,22 +5887,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111308530</v>
+        <v>111310851</v>
       </c>
       <c r="B48" t="n">
-        <v>89405</v>
+        <v>89558</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5914,25 +5911,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1202</v>
+        <v>1503</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5978,7 +5975,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5988,7 +5985,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6015,10 +6012,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111311395</v>
+        <v>111311281</v>
       </c>
       <c r="B49" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6031,21 +6028,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6056,10 +6053,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>590706.4606926481</v>
+        <v>590689.600060009</v>
       </c>
       <c r="R49" t="n">
-        <v>7040484.625072884</v>
+        <v>7040479.226922397</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6128,10 +6125,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111310942</v>
+        <v>111308280</v>
       </c>
       <c r="B50" t="n">
-        <v>89845</v>
+        <v>94134</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6140,25 +6137,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1209</v>
+        <v>53</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6169,10 +6166,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>590675.2966033132</v>
+        <v>590599.2495874113</v>
       </c>
       <c r="R50" t="n">
-        <v>7040478.372989829</v>
+        <v>7040255.316109447</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6204,7 +6201,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6214,7 +6211,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6241,10 +6238,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111307637</v>
+        <v>111311401</v>
       </c>
       <c r="B51" t="n">
-        <v>94134</v>
+        <v>89686</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6257,21 +6254,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>53</v>
+        <v>658</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6282,10 +6279,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>590658.1836587854</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R51" t="n">
-        <v>7040277.113733714</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6354,10 +6351,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111308963</v>
+        <v>111320028</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6370,38 +6367,37 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>590582.1749845718</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R52" t="n">
-        <v>7040273.16502161</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6430,7 +6426,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6440,7 +6436,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6455,19 +6451,19 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111307853</v>
+        <v>111305042</v>
       </c>
       <c r="B53" t="n">
         <v>89405</v>
@@ -6508,10 +6504,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>590640.5765326766</v>
+        <v>590677.0058343092</v>
       </c>
       <c r="R53" t="n">
-        <v>7040250.677298564</v>
+        <v>7040607.195673673</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6580,10 +6576,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111308229</v>
+        <v>111320023</v>
       </c>
       <c r="B54" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6596,38 +6592,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>590604.1361025569</v>
+        <v>590674.5556983197</v>
       </c>
       <c r="R54" t="n">
-        <v>7040272.447424728</v>
+        <v>7040630.376315817</v>
       </c>
       <c r="S54" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6681,22 +6676,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111311036</v>
+        <v>111308178</v>
       </c>
       <c r="B55" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6709,21 +6704,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6734,10 +6729,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>590702.9273836177</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R55" t="n">
-        <v>7040451.435986779</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6806,10 +6801,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111305920</v>
+        <v>111306233</v>
       </c>
       <c r="B56" t="n">
-        <v>89425</v>
+        <v>77515</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6822,21 +6817,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6847,10 +6842,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>590734.7799036079</v>
+        <v>590615.2976031969</v>
       </c>
       <c r="R56" t="n">
-        <v>7040527.908902652</v>
+        <v>7040415.40842591</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6919,10 +6914,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111305012</v>
+        <v>111311509</v>
       </c>
       <c r="B57" t="n">
-        <v>89845</v>
+        <v>78611</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6931,25 +6926,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1209</v>
+        <v>6463</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6960,10 +6955,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>590677.6718517016</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R57" t="n">
-        <v>7040615.262823105</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -6990,7 +6985,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7000,7 +6995,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7032,10 +7027,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111320025</v>
+        <v>111310603</v>
       </c>
       <c r="B58" t="n">
-        <v>89845</v>
+        <v>89755</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7048,37 +7043,38 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1209</v>
+        <v>1506</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>590670.6438133246</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R58" t="n">
-        <v>7040626.240984956</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7132,19 +7128,19 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111320029</v>
+        <v>111308229</v>
       </c>
       <c r="B59" t="n">
         <v>89686</v>
@@ -7178,19 +7174,20 @@
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>590688.7415075897</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R59" t="n">
-        <v>7040619.60176132</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S59" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7244,22 +7241,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111308996</v>
+        <v>111308121</v>
       </c>
       <c r="B60" t="n">
-        <v>78578</v>
+        <v>90187</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7272,21 +7269,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>2014</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7297,10 +7294,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>590567.9278508583</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R60" t="n">
-        <v>7040301.826193022</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7332,7 +7329,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7342,7 +7339,12 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Gammal fruktkropp</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7369,10 +7371,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111308280</v>
+        <v>111308606</v>
       </c>
       <c r="B61" t="n">
-        <v>94134</v>
+        <v>78579</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7385,21 +7387,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>53</v>
+        <v>2081</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7410,13 +7412,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>590599.2495874113</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R61" t="n">
-        <v>7040255.316109447</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S61" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7445,7 +7447,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7455,7 +7457,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7470,22 +7472,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111305036</v>
+        <v>111308352</v>
       </c>
       <c r="B62" t="n">
-        <v>89845</v>
+        <v>94134</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7494,25 +7496,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1209</v>
+        <v>53</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7523,10 +7525,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>590677.0058343092</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R62" t="n">
-        <v>7040607.195673673</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7595,7 +7597,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111304912</v>
+        <v>111307902</v>
       </c>
       <c r="B63" t="n">
         <v>89405</v>
@@ -7636,10 +7638,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>590678.899579621</v>
+        <v>590642.5312889211</v>
       </c>
       <c r="R63" t="n">
-        <v>7040619.321836494</v>
+        <v>7040244.919611955</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7708,10 +7710,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111308194</v>
+        <v>111320024</v>
       </c>
       <c r="B64" t="n">
-        <v>78612</v>
+        <v>89405</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7720,42 +7722,41 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6464</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>590607.2776005382</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R64" t="n">
-        <v>7040256.438550681</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S64" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7809,19 +7810,19 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111311281</v>
+        <v>111320029</v>
       </c>
       <c r="B65" t="n">
         <v>89686</v>
@@ -7855,20 +7856,19 @@
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>590689.600060009</v>
+        <v>590688.7415075897</v>
       </c>
       <c r="R65" t="n">
-        <v>7040479.226922397</v>
+        <v>7040619.60176132</v>
       </c>
       <c r="S65" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7922,12 +7922,12 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>

--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY66"/>
+  <dimension ref="A1:AY73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111320027</v>
+        <v>111308822</v>
       </c>
       <c r="B7" t="n">
-        <v>89686</v>
+        <v>89665</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,37 +1276,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>73</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>590668.9787260931</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R7" t="n">
-        <v>7040606.073147954</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1360,22 +1361,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111308600</v>
+        <v>111308229</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,21 +1389,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1413,13 +1414,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>590571.6374187953</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R8" t="n">
-        <v>7040376.160066846</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1448,7 +1449,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1458,7 +1459,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1473,22 +1474,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111308196</v>
+        <v>111310942</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1497,25 +1498,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1526,10 +1527,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>590607.2776005382</v>
+        <v>590675.2966033132</v>
       </c>
       <c r="R9" t="n">
-        <v>7040256.438550681</v>
+        <v>7040478.372989829</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1561,7 +1562,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1571,7 +1572,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1598,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111305036</v>
+        <v>111310228</v>
       </c>
       <c r="B10" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,25 +1611,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1639,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>590677.0058343092</v>
+        <v>590617.0527943866</v>
       </c>
       <c r="R10" t="n">
-        <v>7040607.195673673</v>
+        <v>7040369.401581543</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1674,7 +1675,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1684,7 +1685,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1711,10 +1717,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111310353</v>
+        <v>111308530</v>
       </c>
       <c r="B11" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1727,21 +1733,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1787,7 +1793,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1797,7 +1803,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1937,10 +1943,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111311377</v>
+        <v>111304960</v>
       </c>
       <c r="B13" t="n">
-        <v>90065</v>
+        <v>89686</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,25 +1955,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>898</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1978,10 +1984,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>590706.4606926481</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R13" t="n">
-        <v>7040484.625072884</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2050,7 +2056,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111320026</v>
+        <v>111311225</v>
       </c>
       <c r="B14" t="n">
         <v>89686</v>
@@ -2084,19 +2090,20 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>590728.1019840735</v>
+        <v>590720.7464700924</v>
       </c>
       <c r="R14" t="n">
-        <v>7040573.773426552</v>
+        <v>7040454.625792346</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2150,19 +2157,19 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111309000</v>
+        <v>111308352</v>
       </c>
       <c r="B15" t="n">
         <v>94134</v>
@@ -2203,13 +2210,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>590571.6374187953</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R15" t="n">
-        <v>7040376.160066846</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2263,22 +2270,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111308963</v>
+        <v>111310897</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2291,21 +2298,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2316,10 +2323,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>590582.1749845718</v>
+        <v>590681.7124013144</v>
       </c>
       <c r="R16" t="n">
-        <v>7040273.16502161</v>
+        <v>7040473.189748496</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2388,10 +2395,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111320022</v>
+        <v>111308963</v>
       </c>
       <c r="B17" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2404,37 +2411,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>590681.5329159837</v>
+        <v>590582.1749845718</v>
       </c>
       <c r="R17" t="n">
-        <v>7040621.185216802</v>
+        <v>7040273.16502161</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2463,7 +2471,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2473,7 +2481,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2488,22 +2496,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111308194</v>
+        <v>111304897</v>
       </c>
       <c r="B18" t="n">
-        <v>78612</v>
+        <v>89845</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2512,25 +2520,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6464</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2541,10 +2549,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590607.2776005382</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R18" t="n">
-        <v>7040256.438550681</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2613,10 +2621,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111311036</v>
+        <v>111306233</v>
       </c>
       <c r="B19" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2629,21 +2637,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2654,10 +2662,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590702.9273836177</v>
+        <v>590615.2976031969</v>
       </c>
       <c r="R19" t="n">
-        <v>7040451.435986779</v>
+        <v>7040415.40842591</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2726,10 +2734,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111311065</v>
+        <v>111320028</v>
       </c>
       <c r="B20" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2742,38 +2750,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>590702.9273836177</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R20" t="n">
-        <v>7040451.435986779</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2827,22 +2834,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111309827</v>
+        <v>111309000</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2855,21 +2862,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2880,13 +2887,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590614.0068928505</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R21" t="n">
-        <v>7040350.534422184</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2915,7 +2922,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2925,7 +2932,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2940,22 +2947,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111305463</v>
+        <v>111308996</v>
       </c>
       <c r="B22" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2968,21 +2975,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2993,10 +3000,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>590730.310987493</v>
+        <v>590567.9278508583</v>
       </c>
       <c r="R22" t="n">
-        <v>7040559.081015749</v>
+        <v>7040301.826193022</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3028,7 +3035,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3038,7 +3045,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3065,10 +3072,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111311410</v>
+        <v>111307811</v>
       </c>
       <c r="B23" t="n">
-        <v>56543</v>
+        <v>89686</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3081,40 +3088,35 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>590706.4606926481</v>
+        <v>590640.5765326766</v>
       </c>
       <c r="R23" t="n">
-        <v>7040484.625072884</v>
+        <v>7040250.677298564</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3183,10 +3185,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111311518</v>
+        <v>111308280</v>
       </c>
       <c r="B24" t="n">
-        <v>89686</v>
+        <v>94134</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3199,21 +3201,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>53</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3224,10 +3226,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>590714.4880980195</v>
+        <v>590599.2495874113</v>
       </c>
       <c r="R24" t="n">
-        <v>7040485.747725119</v>
+        <v>7040255.316109447</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3254,7 +3256,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3264,7 +3266,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3296,10 +3298,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111307811</v>
+        <v>111310108</v>
       </c>
       <c r="B25" t="n">
-        <v>89686</v>
+        <v>89425</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3312,21 +3314,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>5442</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3337,13 +3339,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>590640.5765326766</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R25" t="n">
-        <v>7040250.677298564</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3397,19 +3399,19 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111308530</v>
+        <v>111320023</v>
       </c>
       <c r="B26" t="n">
         <v>89405</v>
@@ -3443,20 +3445,19 @@
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>590571.6374187953</v>
+        <v>590674.5556983197</v>
       </c>
       <c r="R26" t="n">
-        <v>7040376.160066846</v>
+        <v>7040630.376315817</v>
       </c>
       <c r="S26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3485,7 +3486,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3495,7 +3496,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3510,22 +3511,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111310220</v>
+        <v>111320025</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3534,42 +3535,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>590571.6374187953</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R27" t="n">
-        <v>7040376.160066846</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3623,22 +3623,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111304909</v>
+        <v>111320022</v>
       </c>
       <c r="B28" t="n">
-        <v>89686</v>
+        <v>94134</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3651,38 +3651,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>658</v>
+        <v>53</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>590678.899579621</v>
+        <v>590681.5329159837</v>
       </c>
       <c r="R28" t="n">
-        <v>7040619.321836494</v>
+        <v>7040621.185216802</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3736,22 +3735,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111311113</v>
+        <v>111311281</v>
       </c>
       <c r="B29" t="n">
-        <v>89369</v>
+        <v>89686</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3760,25 +3759,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5447</v>
+        <v>658</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3789,13 +3788,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>590571.6374187953</v>
+        <v>590689.600060009</v>
       </c>
       <c r="R29" t="n">
-        <v>7040376.160066846</v>
+        <v>7040479.226922397</v>
       </c>
       <c r="S29" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3849,22 +3848,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111310108</v>
+        <v>111308196</v>
       </c>
       <c r="B30" t="n">
-        <v>89425</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3877,21 +3876,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5442</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3902,13 +3901,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590571.6374187953</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R30" t="n">
-        <v>7040376.160066846</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S30" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3962,22 +3961,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111305920</v>
+        <v>111311190</v>
       </c>
       <c r="B31" t="n">
-        <v>89425</v>
+        <v>56543</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3990,38 +3989,43 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5442</v>
+        <v>103021</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590734.7799036079</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R31" t="n">
-        <v>7040527.908902652</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4075,22 +4079,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111305206</v>
+        <v>111320029</v>
       </c>
       <c r="B32" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4099,42 +4103,41 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590706.3868867881</v>
+        <v>590688.7415075897</v>
       </c>
       <c r="R32" t="n">
-        <v>7040581.651012956</v>
+        <v>7040619.60176132</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4188,22 +4191,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111307637</v>
+        <v>111311036</v>
       </c>
       <c r="B33" t="n">
-        <v>94134</v>
+        <v>89686</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4216,21 +4219,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4241,10 +4244,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590658.1836587854</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R33" t="n">
-        <v>7040277.113733714</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4313,10 +4316,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111310942</v>
+        <v>111311065</v>
       </c>
       <c r="B34" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4325,25 +4328,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4354,10 +4357,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>590675.2966033132</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R34" t="n">
-        <v>7040478.372989829</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4389,7 +4392,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4399,7 +4402,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4426,10 +4429,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111310897</v>
+        <v>111308434</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4442,21 +4445,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4467,10 +4470,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>590681.7124013144</v>
+        <v>590592.3607059828</v>
       </c>
       <c r="R35" t="n">
-        <v>7040473.189748496</v>
+        <v>7040261.380789872</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4502,7 +4505,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4512,7 +4515,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4539,10 +4542,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111305012</v>
+        <v>111308527</v>
       </c>
       <c r="B36" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4551,25 +4554,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4580,13 +4583,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>590677.6718517016</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R36" t="n">
-        <v>7040615.262823105</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4615,7 +4618,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4625,7 +4628,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4640,22 +4643,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111311225</v>
+        <v>111305012</v>
       </c>
       <c r="B37" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4664,25 +4667,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4693,10 +4696,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>590720.7464700924</v>
+        <v>590677.6718517016</v>
       </c>
       <c r="R37" t="n">
-        <v>7040454.625792346</v>
+        <v>7040615.262823105</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4765,10 +4768,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111311816</v>
+        <v>111305042</v>
       </c>
       <c r="B38" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4777,25 +4780,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4806,10 +4809,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>590678.899579621</v>
+        <v>590677.0058343092</v>
       </c>
       <c r="R38" t="n">
-        <v>7040619.321836494</v>
+        <v>7040607.195673673</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4836,7 +4839,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4846,7 +4849,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4878,10 +4881,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111310228</v>
+        <v>111307637</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4894,21 +4897,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4919,10 +4922,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>590617.0527943866</v>
+        <v>590658.1836587854</v>
       </c>
       <c r="R39" t="n">
-        <v>7040369.401581543</v>
+        <v>7040277.113733714</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4954,7 +4957,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4964,12 +4967,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>13:34</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4996,10 +4994,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111311029</v>
+        <v>111320026</v>
       </c>
       <c r="B40" t="n">
-        <v>89590</v>
+        <v>89686</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5008,42 +5006,41 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>590702.9273836177</v>
+        <v>590728.1019840735</v>
       </c>
       <c r="R40" t="n">
-        <v>7040451.435986779</v>
+        <v>7040573.773426552</v>
       </c>
       <c r="S40" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5097,22 +5094,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111308822</v>
+        <v>111320027</v>
       </c>
       <c r="B41" t="n">
-        <v>89665</v>
+        <v>89686</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5125,38 +5122,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73</v>
+        <v>658</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>590571.6374187953</v>
+        <v>590668.9787260931</v>
       </c>
       <c r="R41" t="n">
-        <v>7040376.160066846</v>
+        <v>7040606.073147954</v>
       </c>
       <c r="S41" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5210,22 +5206,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111308307</v>
+        <v>111307853</v>
       </c>
       <c r="B42" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5238,21 +5234,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5263,10 +5259,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>590592.3607059828</v>
+        <v>590640.5765326766</v>
       </c>
       <c r="R42" t="n">
-        <v>7040261.380789872</v>
+        <v>7040250.677298564</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5335,10 +5331,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111307853</v>
+        <v>111311113</v>
       </c>
       <c r="B43" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5347,25 +5343,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5376,13 +5372,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>590640.5765326766</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R43" t="n">
-        <v>7040250.677298564</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5436,22 +5432,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111304912</v>
+        <v>111308121</v>
       </c>
       <c r="B44" t="n">
-        <v>89405</v>
+        <v>90187</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5464,21 +5460,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>2014</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5489,10 +5485,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>590678.899579621</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R44" t="n">
-        <v>7040619.321836494</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5535,6 +5531,11 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Gammal fruktkropp</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5561,10 +5562,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111312274</v>
+        <v>111305036</v>
       </c>
       <c r="B45" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5573,25 +5574,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5602,10 +5603,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>590719.8000455381</v>
+        <v>590677.0058343092</v>
       </c>
       <c r="R45" t="n">
-        <v>7040613.7784966</v>
+        <v>7040607.195673673</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5632,7 +5633,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5642,7 +5643,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5674,10 +5675,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111308996</v>
+        <v>111305206</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5686,25 +5687,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5715,10 +5716,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>590567.9278508583</v>
+        <v>590706.3868867881</v>
       </c>
       <c r="R46" t="n">
-        <v>7040301.826193022</v>
+        <v>7040581.651012956</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5750,7 +5751,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5760,7 +5761,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5787,10 +5788,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111320025</v>
+        <v>111311509</v>
       </c>
       <c r="B47" t="n">
-        <v>89845</v>
+        <v>78611</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5799,41 +5800,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1209</v>
+        <v>6463</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>590670.6438133246</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R47" t="n">
-        <v>7040626.240984956</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5857,7 +5859,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5867,7 +5869,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -5887,22 +5889,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111310851</v>
+        <v>111308600</v>
       </c>
       <c r="B48" t="n">
-        <v>89558</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5911,25 +5913,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1503</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5975,7 +5977,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5985,7 +5987,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6012,7 +6014,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111311281</v>
+        <v>111311401</v>
       </c>
       <c r="B49" t="n">
         <v>89686</v>
@@ -6053,10 +6055,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>590689.600060009</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R49" t="n">
-        <v>7040479.226922397</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6125,10 +6127,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111308280</v>
+        <v>111309827</v>
       </c>
       <c r="B50" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6141,21 +6143,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6166,10 +6168,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>590599.2495874113</v>
+        <v>590614.0068928505</v>
       </c>
       <c r="R50" t="n">
-        <v>7040255.316109447</v>
+        <v>7040350.534422184</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6201,7 +6203,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6211,7 +6213,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6238,10 +6240,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111311401</v>
+        <v>111305920</v>
       </c>
       <c r="B51" t="n">
-        <v>89686</v>
+        <v>89425</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6254,21 +6256,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>658</v>
+        <v>5442</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>590706.4606926481</v>
+        <v>590734.7799036079</v>
       </c>
       <c r="R51" t="n">
-        <v>7040484.625072884</v>
+        <v>7040527.908902652</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6351,10 +6353,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111320028</v>
+        <v>111308194</v>
       </c>
       <c r="B52" t="n">
-        <v>89686</v>
+        <v>78612</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6363,41 +6365,42 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>658</v>
+        <v>6464</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>590670.6438133246</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R52" t="n">
-        <v>7040626.240984956</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6451,22 +6454,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111305042</v>
+        <v>111311410</v>
       </c>
       <c r="B53" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6479,35 +6482,40 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>590677.0058343092</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R53" t="n">
-        <v>7040607.195673673</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6576,10 +6584,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111320023</v>
+        <v>111311029</v>
       </c>
       <c r="B54" t="n">
-        <v>89405</v>
+        <v>89590</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6588,41 +6596,42 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>48</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>590674.5556983197</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R54" t="n">
-        <v>7040630.376315817</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6676,22 +6685,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111308178</v>
+        <v>111320024</v>
       </c>
       <c r="B55" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6704,38 +6713,37 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>590604.1361025569</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R55" t="n">
-        <v>7040272.447424728</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S55" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6789,22 +6797,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111306233</v>
+        <v>111305463</v>
       </c>
       <c r="B56" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6817,21 +6825,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6842,10 +6850,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>590615.2976031969</v>
+        <v>590730.310987493</v>
       </c>
       <c r="R56" t="n">
-        <v>7040415.40842591</v>
+        <v>7040559.081015749</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6914,10 +6922,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111311509</v>
+        <v>111307902</v>
       </c>
       <c r="B57" t="n">
-        <v>78611</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6926,25 +6934,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6463</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6955,10 +6963,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>590706.4606926481</v>
+        <v>590642.5312889211</v>
       </c>
       <c r="R57" t="n">
-        <v>7040484.625072884</v>
+        <v>7040244.919611955</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -6985,7 +6993,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -6995,7 +7003,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7027,10 +7035,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111310603</v>
+        <v>111311518</v>
       </c>
       <c r="B58" t="n">
-        <v>89755</v>
+        <v>89686</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7039,25 +7047,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1506</v>
+        <v>658</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7068,13 +7076,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>590571.6374187953</v>
+        <v>590714.4880980195</v>
       </c>
       <c r="R58" t="n">
-        <v>7040376.160066846</v>
+        <v>7040485.747725119</v>
       </c>
       <c r="S58" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7098,7 +7106,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7108,7 +7116,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7128,22 +7136,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111308229</v>
+        <v>111310603</v>
       </c>
       <c r="B59" t="n">
-        <v>89686</v>
+        <v>89755</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7152,25 +7160,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>658</v>
+        <v>1506</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7181,13 +7189,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>590604.1361025569</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R59" t="n">
-        <v>7040272.447424728</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7241,22 +7249,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111308121</v>
+        <v>111312274</v>
       </c>
       <c r="B60" t="n">
-        <v>90187</v>
+        <v>89405</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7269,21 +7277,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2014</v>
+        <v>1202</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7294,10 +7302,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>590607.2776005382</v>
+        <v>590719.8000455381</v>
       </c>
       <c r="R60" t="n">
-        <v>7040256.438550681</v>
+        <v>7040613.7784966</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7324,7 +7332,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7334,17 +7342,12 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Gammal fruktkropp</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7371,10 +7374,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111308606</v>
+        <v>111308178</v>
       </c>
       <c r="B61" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7387,21 +7390,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7412,13 +7415,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>590571.6374187953</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R61" t="n">
-        <v>7040376.160066846</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S61" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7447,7 +7450,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7457,7 +7460,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7472,22 +7475,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111308352</v>
+        <v>111310220</v>
       </c>
       <c r="B62" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7500,21 +7503,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7525,13 +7528,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>590604.1361025569</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R62" t="n">
-        <v>7040272.447424728</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S62" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7585,22 +7588,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111307902</v>
+        <v>111308606</v>
       </c>
       <c r="B63" t="n">
-        <v>89405</v>
+        <v>78579</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7613,21 +7616,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7638,13 +7641,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>590642.5312889211</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R63" t="n">
-        <v>7040244.919611955</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S63" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7673,7 +7676,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7683,7 +7686,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7698,22 +7701,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111320024</v>
+        <v>111311377</v>
       </c>
       <c r="B64" t="n">
-        <v>89405</v>
+        <v>90065</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7722,41 +7725,42 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1202</v>
+        <v>898</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>590670.6438133246</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R64" t="n">
-        <v>7040626.240984956</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S64" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7810,22 +7814,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111320029</v>
+        <v>111304912</v>
       </c>
       <c r="B65" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7838,37 +7842,38 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>590688.7415075897</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R65" t="n">
-        <v>7040619.60176132</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S65" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7922,22 +7927,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111311190</v>
+        <v>111310851</v>
       </c>
       <c r="B66" t="n">
-        <v>56543</v>
+        <v>89558</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7946,34 +7951,29 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>103021</v>
+        <v>1503</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
@@ -8049,6 +8049,800 @@
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>111870127</v>
+      </c>
+      <c r="B67" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Valforsen (Valforsen), Ång</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>590710.4131779457</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7040581.765558361</v>
+      </c>
+      <c r="S67" t="n">
+        <v>20</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Ådals-Liden</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>111870990</v>
+      </c>
+      <c r="B68" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Valforsen (Valforsen), Ång</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>590569.8478412227</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7040376.109235858</v>
+      </c>
+      <c r="S68" t="n">
+        <v>20</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Ådals-Liden</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>111881310</v>
+      </c>
+      <c r="B69" t="n">
+        <v>89425</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Valforsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>590738.9206925276</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7040524.002523924</v>
+      </c>
+      <c r="S69" t="n">
+        <v>20</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Ådals-Liden</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>111871585</v>
+      </c>
+      <c r="B70" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Valforsen (Valforsen), Ång</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>590630.2636057099</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7040266.929520278</v>
+      </c>
+      <c r="S70" t="n">
+        <v>20</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Ådals-Liden</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>111870830</v>
+      </c>
+      <c r="B71" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Valforsen (Valforsen), Ång</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>590558.4251677697</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7040399.931061053</v>
+      </c>
+      <c r="S71" t="n">
+        <v>20</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Ådals-Liden</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>111870139</v>
+      </c>
+      <c r="B72" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Valforsen (Valforsen), Ång</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>590710.4131779457</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7040581.765558361</v>
+      </c>
+      <c r="S72" t="n">
+        <v>20</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Ådals-Liden</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>111881322</v>
+      </c>
+      <c r="B73" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Valforsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>590615.1562677342</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7040278.573758457</v>
+      </c>
+      <c r="S73" t="n">
+        <v>20</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Ådals-Liden</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -8052,10 +8052,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111870127</v>
+        <v>111870990</v>
       </c>
       <c r="B67" t="n">
-        <v>89405</v>
+        <v>90666</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8064,25 +8064,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8093,10 +8093,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>590710.4131779457</v>
+        <v>590569.8478412227</v>
       </c>
       <c r="R67" t="n">
-        <v>7040581.765558361</v>
+        <v>7040376.109235858</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8165,10 +8165,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111870990</v>
+        <v>111881322</v>
       </c>
       <c r="B68" t="n">
-        <v>90666</v>
+        <v>56414</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8177,39 +8177,43 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>590569.8478412227</v>
+        <v>590615.1562677342</v>
       </c>
       <c r="R68" t="n">
-        <v>7040376.109235858</v>
+        <v>7040278.573758457</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8278,10 +8282,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111881310</v>
+        <v>111870139</v>
       </c>
       <c r="B69" t="n">
-        <v>89425</v>
+        <v>89845</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8290,38 +8294,39 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5442</v>
+        <v>1209</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>590738.9206925276</v>
+        <v>590710.4131779457</v>
       </c>
       <c r="R69" t="n">
-        <v>7040524.002523924</v>
+        <v>7040581.765558361</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8390,10 +8395,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111871585</v>
+        <v>111881310</v>
       </c>
       <c r="B70" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8406,35 +8411,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>590630.2636057099</v>
+        <v>590738.9206925276</v>
       </c>
       <c r="R70" t="n">
-        <v>7040266.929520278</v>
+        <v>7040524.002523924</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8503,10 +8507,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111870830</v>
+        <v>111871585</v>
       </c>
       <c r="B71" t="n">
-        <v>90678</v>
+        <v>89405</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8515,25 +8519,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4366</v>
+        <v>1202</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8544,10 +8548,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>590558.4251677697</v>
+        <v>590630.2636057099</v>
       </c>
       <c r="R71" t="n">
-        <v>7040399.931061053</v>
+        <v>7040266.929520278</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8616,10 +8620,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111870139</v>
+        <v>111870830</v>
       </c>
       <c r="B72" t="n">
-        <v>89845</v>
+        <v>90678</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8628,25 +8632,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1209</v>
+        <v>4366</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8657,10 +8661,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>590710.4131779457</v>
+        <v>590558.4251677697</v>
       </c>
       <c r="R72" t="n">
-        <v>7040581.765558361</v>
+        <v>7040399.931061053</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8729,10 +8733,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111881322</v>
+        <v>111870127</v>
       </c>
       <c r="B73" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8745,39 +8749,35 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>590615.1562677342</v>
+        <v>590710.4131779457</v>
       </c>
       <c r="R73" t="n">
-        <v>7040278.573758457</v>
+        <v>7040581.765558361</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>

--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -8052,10 +8052,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111870990</v>
+        <v>111881310</v>
       </c>
       <c r="B67" t="n">
-        <v>90666</v>
+        <v>89425</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8064,39 +8064,38 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4364</v>
+        <v>5442</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>590569.8478412227</v>
+        <v>590738.9206925276</v>
       </c>
       <c r="R67" t="n">
-        <v>7040376.109235858</v>
+        <v>7040524.002523924</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8165,10 +8164,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111881322</v>
+        <v>111870990</v>
       </c>
       <c r="B68" t="n">
-        <v>56414</v>
+        <v>90666</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8177,43 +8176,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>590615.1562677342</v>
+        <v>590569.8478412227</v>
       </c>
       <c r="R68" t="n">
-        <v>7040278.573758457</v>
+        <v>7040376.109235858</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8395,10 +8390,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111881310</v>
+        <v>111870127</v>
       </c>
       <c r="B70" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8411,34 +8406,35 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>590738.9206925276</v>
+        <v>590710.4131779457</v>
       </c>
       <c r="R70" t="n">
-        <v>7040524.002523924</v>
+        <v>7040581.765558361</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8507,10 +8503,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111871585</v>
+        <v>111881322</v>
       </c>
       <c r="B71" t="n">
-        <v>89405</v>
+        <v>56414</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8523,35 +8519,39 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>590630.2636057099</v>
+        <v>590615.1562677342</v>
       </c>
       <c r="R71" t="n">
-        <v>7040266.929520278</v>
+        <v>7040278.573758457</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8620,10 +8620,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111870830</v>
+        <v>111871585</v>
       </c>
       <c r="B72" t="n">
-        <v>90678</v>
+        <v>89405</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8632,25 +8632,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4366</v>
+        <v>1202</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8661,10 +8661,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>590558.4251677697</v>
+        <v>590630.2636057099</v>
       </c>
       <c r="R72" t="n">
-        <v>7040399.931061053</v>
+        <v>7040266.929520278</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8733,10 +8733,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111870127</v>
+        <v>111870830</v>
       </c>
       <c r="B73" t="n">
-        <v>89405</v>
+        <v>90678</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8745,25 +8745,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>4366</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8774,10 +8774,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>590710.4131779457</v>
+        <v>590558.4251677697</v>
       </c>
       <c r="R73" t="n">
-        <v>7040581.765558361</v>
+        <v>7040399.931061053</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>

--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -8052,10 +8052,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111881310</v>
+        <v>111871585</v>
       </c>
       <c r="B67" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8068,34 +8068,35 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>590738.9206925276</v>
+        <v>590630.2636057099</v>
       </c>
       <c r="R67" t="n">
-        <v>7040524.002523924</v>
+        <v>7040266.929520278</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8164,10 +8165,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111870990</v>
+        <v>111870139</v>
       </c>
       <c r="B68" t="n">
-        <v>90666</v>
+        <v>89845</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8176,25 +8177,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4364</v>
+        <v>1209</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8205,10 +8206,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>590569.8478412227</v>
+        <v>590710.4131779457</v>
       </c>
       <c r="R68" t="n">
-        <v>7040376.109235858</v>
+        <v>7040581.765558361</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8277,10 +8278,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111870139</v>
+        <v>111870990</v>
       </c>
       <c r="B69" t="n">
-        <v>89845</v>
+        <v>90666</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8289,25 +8290,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1209</v>
+        <v>4364</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8318,10 +8319,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>590710.4131779457</v>
+        <v>590569.8478412227</v>
       </c>
       <c r="R69" t="n">
-        <v>7040581.765558361</v>
+        <v>7040376.109235858</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8390,10 +8391,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111870127</v>
+        <v>111881310</v>
       </c>
       <c r="B70" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8406,35 +8407,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>590710.4131779457</v>
+        <v>590738.9206925276</v>
       </c>
       <c r="R70" t="n">
-        <v>7040581.765558361</v>
+        <v>7040524.002523924</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111871585</v>
+        <v>111870127</v>
       </c>
       <c r="B72" t="n">
         <v>89405</v>
@@ -8661,10 +8661,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>590630.2636057099</v>
+        <v>590710.4131779457</v>
       </c>
       <c r="R72" t="n">
-        <v>7040266.929520278</v>
+        <v>7040581.765558361</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>

--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -8052,10 +8052,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111871585</v>
+        <v>111881310</v>
       </c>
       <c r="B67" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8068,35 +8068,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>590630.2636057099</v>
+        <v>590738.9206925276</v>
       </c>
       <c r="R67" t="n">
-        <v>7040266.929520278</v>
+        <v>7040524.002523924</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8165,10 +8164,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111870139</v>
+        <v>111881322</v>
       </c>
       <c r="B68" t="n">
-        <v>89845</v>
+        <v>56414</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8177,39 +8176,43 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1209</v>
+        <v>100049</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>590710.4131779457</v>
+        <v>590615.1562677342</v>
       </c>
       <c r="R68" t="n">
-        <v>7040581.765558361</v>
+        <v>7040278.573758457</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8391,10 +8394,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111881310</v>
+        <v>111871585</v>
       </c>
       <c r="B70" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8407,34 +8410,35 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>590738.9206925276</v>
+        <v>590630.2636057099</v>
       </c>
       <c r="R70" t="n">
-        <v>7040524.002523924</v>
+        <v>7040266.929520278</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8503,10 +8507,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111881322</v>
+        <v>111870139</v>
       </c>
       <c r="B71" t="n">
-        <v>56414</v>
+        <v>89845</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8515,43 +8519,39 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100049</v>
+        <v>1209</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>590615.1562677342</v>
+        <v>590710.4131779457</v>
       </c>
       <c r="R71" t="n">
-        <v>7040278.573758457</v>
+        <v>7040581.765558361</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>

--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -8052,10 +8052,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111881310</v>
+        <v>111870127</v>
       </c>
       <c r="B67" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8068,34 +8068,35 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>590738.9206925276</v>
+        <v>590710.4131779457</v>
       </c>
       <c r="R67" t="n">
-        <v>7040524.002523924</v>
+        <v>7040581.765558361</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8164,10 +8165,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111881322</v>
+        <v>111870830</v>
       </c>
       <c r="B68" t="n">
-        <v>56414</v>
+        <v>90678</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8176,43 +8177,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100049</v>
+        <v>4366</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>590615.1562677342</v>
+        <v>590558.4251677697</v>
       </c>
       <c r="R68" t="n">
-        <v>7040278.573758457</v>
+        <v>7040399.931061053</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8394,10 +8391,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111871585</v>
+        <v>111870139</v>
       </c>
       <c r="B70" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8406,25 +8403,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8435,10 +8432,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>590630.2636057099</v>
+        <v>590710.4131779457</v>
       </c>
       <c r="R70" t="n">
-        <v>7040266.929520278</v>
+        <v>7040581.765558361</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8507,10 +8504,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111870139</v>
+        <v>111881322</v>
       </c>
       <c r="B71" t="n">
-        <v>89845</v>
+        <v>56414</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8519,39 +8516,43 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1209</v>
+        <v>100049</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>590710.4131779457</v>
+        <v>590615.1562677342</v>
       </c>
       <c r="R71" t="n">
-        <v>7040581.765558361</v>
+        <v>7040278.573758457</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8620,10 +8621,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111870127</v>
+        <v>111881310</v>
       </c>
       <c r="B72" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8636,35 +8637,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>590710.4131779457</v>
+        <v>590738.9206925276</v>
       </c>
       <c r="R72" t="n">
-        <v>7040581.765558361</v>
+        <v>7040524.002523924</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8733,10 +8733,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111870830</v>
+        <v>111871585</v>
       </c>
       <c r="B73" t="n">
-        <v>90678</v>
+        <v>89405</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8745,25 +8745,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4366</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8774,10 +8774,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>590558.4251677697</v>
+        <v>590630.2636057099</v>
       </c>
       <c r="R73" t="n">
-        <v>7040399.931061053</v>
+        <v>7040266.929520278</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>

--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -8052,10 +8052,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111870127</v>
+        <v>111870990</v>
       </c>
       <c r="B67" t="n">
-        <v>89405</v>
+        <v>90666</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8064,25 +8064,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8093,10 +8093,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>590710.4131779457</v>
+        <v>590569.8478412227</v>
       </c>
       <c r="R67" t="n">
-        <v>7040581.765558361</v>
+        <v>7040376.109235858</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8165,10 +8165,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111870830</v>
+        <v>111881310</v>
       </c>
       <c r="B68" t="n">
-        <v>90678</v>
+        <v>89425</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8177,39 +8177,38 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4366</v>
+        <v>5442</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>590558.4251677697</v>
+        <v>590738.9206925276</v>
       </c>
       <c r="R68" t="n">
-        <v>7040399.931061053</v>
+        <v>7040524.002523924</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8278,10 +8277,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111870990</v>
+        <v>111881322</v>
       </c>
       <c r="B69" t="n">
-        <v>90666</v>
+        <v>56414</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8290,39 +8289,43 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>590569.8478412227</v>
+        <v>590615.1562677342</v>
       </c>
       <c r="R69" t="n">
-        <v>7040376.109235858</v>
+        <v>7040278.573758457</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8504,10 +8507,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111881322</v>
+        <v>111870127</v>
       </c>
       <c r="B71" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8520,39 +8523,35 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>590615.1562677342</v>
+        <v>590710.4131779457</v>
       </c>
       <c r="R71" t="n">
-        <v>7040278.573758457</v>
+        <v>7040581.765558361</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8621,10 +8620,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111881310</v>
+        <v>111871585</v>
       </c>
       <c r="B72" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8637,34 +8636,35 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>590738.9206925276</v>
+        <v>590630.2636057099</v>
       </c>
       <c r="R72" t="n">
-        <v>7040524.002523924</v>
+        <v>7040266.929520278</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8733,10 +8733,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111871585</v>
+        <v>111870830</v>
       </c>
       <c r="B73" t="n">
-        <v>89405</v>
+        <v>90678</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8745,25 +8745,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>4366</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8774,10 +8774,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>590630.2636057099</v>
+        <v>590558.4251677697</v>
       </c>
       <c r="R73" t="n">
-        <v>7040266.929520278</v>
+        <v>7040399.931061053</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>

--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -8093,10 +8093,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>590569.8478412227</v>
+        <v>590570</v>
       </c>
       <c r="R67" t="n">
-        <v>7040376.109235858</v>
+        <v>7040376</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8126,19 +8126,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA67" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8165,10 +8155,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111881310</v>
+        <v>111871585</v>
       </c>
       <c r="B68" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8181,34 +8171,35 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>590738.9206925276</v>
+        <v>590630</v>
       </c>
       <c r="R68" t="n">
-        <v>7040524.002523924</v>
+        <v>7040267</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8238,19 +8229,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8277,10 +8258,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111881322</v>
+        <v>111870830</v>
       </c>
       <c r="B69" t="n">
-        <v>56414</v>
+        <v>90678</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8289,43 +8270,39 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100049</v>
+        <v>4366</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>590615.1562677342</v>
+        <v>590558</v>
       </c>
       <c r="R69" t="n">
-        <v>7040278.573758457</v>
+        <v>7040400</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8355,19 +8332,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8394,10 +8361,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111870139</v>
+        <v>111870127</v>
       </c>
       <c r="B70" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8406,25 +8373,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8435,10 +8402,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>590710.4131779457</v>
+        <v>590710</v>
       </c>
       <c r="R70" t="n">
-        <v>7040581.765558361</v>
+        <v>7040582</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8468,19 +8435,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA70" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8507,10 +8464,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111870127</v>
+        <v>111881310</v>
       </c>
       <c r="B71" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8523,35 +8480,34 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>590710.4131779457</v>
+        <v>590739</v>
       </c>
       <c r="R71" t="n">
-        <v>7040581.765558361</v>
+        <v>7040524</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8581,19 +8537,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8620,10 +8566,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111871585</v>
+        <v>111870139</v>
       </c>
       <c r="B72" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8632,25 +8578,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8661,10 +8607,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>590630.2636057099</v>
+        <v>590710</v>
       </c>
       <c r="R72" t="n">
-        <v>7040266.929520278</v>
+        <v>7040582</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8694,19 +8640,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8733,10 +8669,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111870830</v>
+        <v>111881322</v>
       </c>
       <c r="B73" t="n">
-        <v>90678</v>
+        <v>56414</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8745,39 +8681,43 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4366</v>
+        <v>100049</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>590558.4251677697</v>
+        <v>590615</v>
       </c>
       <c r="R73" t="n">
-        <v>7040399.931061053</v>
+        <v>7040279</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8807,19 +8747,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA73" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD73" t="b">

--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105935011</v>
+        <v>105935360</v>
       </c>
       <c r="B2" t="n">
-        <v>89832</v>
+        <v>78595</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1209</v>
+        <v>6461</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>590637.3557487996</v>
+        <v>590745.5700578701</v>
       </c>
       <c r="R2" t="n">
-        <v>7040253.715958316</v>
+        <v>7040542.077127401</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105935469</v>
+        <v>105935361</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>78595</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6461</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>590630.8282503617</v>
+        <v>590755.6192459129</v>
       </c>
       <c r="R3" t="n">
-        <v>7040278.571975074</v>
+        <v>7040472.162502382</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105935360</v>
+        <v>111310942</v>
       </c>
       <c r="B4" t="n">
-        <v>78595</v>
+        <v>89845</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,45 +924,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6461</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sträckningen Betåsen - Nässe, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>590745.5700578701</v>
+        <v>590675.2966033132</v>
       </c>
       <c r="R4" t="n">
-        <v>7040542.077127401</v>
+        <v>7040478.372989829</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -986,22 +983,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,22 +1013,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105935361</v>
+        <v>111310228</v>
       </c>
       <c r="B5" t="n">
-        <v>78595</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,45 +1037,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6461</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Sträckningen Betåsen - Nässe, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>590755.6192459129</v>
+        <v>590617.0527943866</v>
       </c>
       <c r="R5" t="n">
-        <v>7040472.162502382</v>
+        <v>7040369.401581543</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1102,22 +1096,27 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,22 +1131,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105934953</v>
+        <v>111311395</v>
       </c>
       <c r="B6" t="n">
-        <v>56411</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,41 +1159,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sträckningen Betåsen - Nässe, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>590578.5164580145</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R6" t="n">
-        <v>7040323.143632798</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1218,7 +1214,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1248,22 +1244,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111308822</v>
+        <v>111304960</v>
       </c>
       <c r="B7" t="n">
-        <v>89665</v>
+        <v>89686</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,21 +1272,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1301,13 +1297,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>590571.6374187953</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R7" t="n">
-        <v>7040376.160066846</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1361,19 +1357,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111308229</v>
+        <v>111311225</v>
       </c>
       <c r="B8" t="n">
         <v>89686</v>
@@ -1414,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>590604.1361025569</v>
+        <v>590720.7464700924</v>
       </c>
       <c r="R8" t="n">
-        <v>7040272.447424728</v>
+        <v>7040454.625792346</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1486,10 +1482,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111310942</v>
+        <v>111310897</v>
       </c>
       <c r="B9" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1498,25 +1494,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1527,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>590675.2966033132</v>
+        <v>590681.7124013144</v>
       </c>
       <c r="R9" t="n">
-        <v>7040478.372989829</v>
+        <v>7040473.189748496</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1599,10 +1595,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111310228</v>
+        <v>111304897</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1611,25 +1607,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1636,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>590617.0527943866</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R10" t="n">
-        <v>7040369.401581543</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1675,7 +1671,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1685,12 +1681,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:34</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1717,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111308530</v>
+        <v>111306233</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1733,21 +1724,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1758,13 +1749,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>590571.6374187953</v>
+        <v>590615.2976031969</v>
       </c>
       <c r="R11" t="n">
-        <v>7040376.160066846</v>
+        <v>7040415.40842591</v>
       </c>
       <c r="S11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1793,7 +1784,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1803,7 +1794,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1818,22 +1809,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111311395</v>
+        <v>111320028</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1846,38 +1837,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>590706.4606926481</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R12" t="n">
-        <v>7040484.625072884</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1931,22 +1921,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111304960</v>
+        <v>111320023</v>
       </c>
       <c r="B13" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1959,38 +1949,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>590678.899579621</v>
+        <v>590674.5556983197</v>
       </c>
       <c r="R13" t="n">
-        <v>7040619.321836494</v>
+        <v>7040630.376315817</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2044,22 +2033,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111311225</v>
+        <v>111320025</v>
       </c>
       <c r="B14" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2068,42 +2057,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>590720.7464700924</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R14" t="n">
-        <v>7040454.625792346</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2157,19 +2145,19 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111308352</v>
+        <v>111320022</v>
       </c>
       <c r="B15" t="n">
         <v>94134</v>
@@ -2203,20 +2191,19 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>590604.1361025569</v>
+        <v>590681.5329159837</v>
       </c>
       <c r="R15" t="n">
-        <v>7040272.447424728</v>
+        <v>7040621.185216802</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2270,22 +2257,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111310897</v>
+        <v>111311281</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2298,21 +2285,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2323,10 +2310,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>590681.7124013144</v>
+        <v>590689.600060009</v>
       </c>
       <c r="R16" t="n">
-        <v>7040473.189748496</v>
+        <v>7040479.226922397</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2358,7 +2345,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2368,7 +2355,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2395,10 +2382,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111308963</v>
+        <v>111320029</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2411,38 +2398,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>590582.1749845718</v>
+        <v>590688.7415075897</v>
       </c>
       <c r="R17" t="n">
-        <v>7040273.16502161</v>
+        <v>7040619.60176132</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2471,7 +2457,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2481,7 +2467,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2496,22 +2482,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111304897</v>
+        <v>111311036</v>
       </c>
       <c r="B18" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2520,25 +2506,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2549,10 +2535,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590678.899579621</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R18" t="n">
-        <v>7040619.321836494</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2621,10 +2607,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111306233</v>
+        <v>111311065</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2637,21 +2623,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2662,10 +2648,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590615.2976031969</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R19" t="n">
-        <v>7040415.40842591</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2734,10 +2720,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111320028</v>
+        <v>111305012</v>
       </c>
       <c r="B20" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2746,41 +2732,42 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>590670.6438133246</v>
+        <v>590677.6718517016</v>
       </c>
       <c r="R20" t="n">
-        <v>7040626.240984956</v>
+        <v>7040615.262823105</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2834,22 +2821,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111309000</v>
+        <v>111305042</v>
       </c>
       <c r="B21" t="n">
-        <v>94134</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2862,21 +2849,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2887,13 +2874,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590571.6374187953</v>
+        <v>590677.0058343092</v>
       </c>
       <c r="R21" t="n">
-        <v>7040376.160066846</v>
+        <v>7040607.195673673</v>
       </c>
       <c r="S21" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2947,22 +2934,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111308996</v>
+        <v>111320026</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2975,38 +2962,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>590567.9278508583</v>
+        <v>590728.1019840735</v>
       </c>
       <c r="R22" t="n">
-        <v>7040301.826193022</v>
+        <v>7040573.773426552</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3035,7 +3021,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3045,7 +3031,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3060,19 +3046,19 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111307811</v>
+        <v>111320027</v>
       </c>
       <c r="B23" t="n">
         <v>89686</v>
@@ -3106,20 +3092,19 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>590640.5765326766</v>
+        <v>590668.9787260931</v>
       </c>
       <c r="R23" t="n">
-        <v>7040250.677298564</v>
+        <v>7040606.073147954</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3173,22 +3158,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111308280</v>
+        <v>111305036</v>
       </c>
       <c r="B24" t="n">
-        <v>94134</v>
+        <v>89845</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3197,25 +3182,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>53</v>
+        <v>1209</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3226,10 +3211,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>590599.2495874113</v>
+        <v>590677.0058343092</v>
       </c>
       <c r="R24" t="n">
-        <v>7040255.316109447</v>
+        <v>7040607.195673673</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3298,10 +3283,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111310108</v>
+        <v>111305206</v>
       </c>
       <c r="B25" t="n">
-        <v>89425</v>
+        <v>89845</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3310,25 +3295,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5442</v>
+        <v>1209</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3339,13 +3324,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>590571.6374187953</v>
+        <v>590706.3868867881</v>
       </c>
       <c r="R25" t="n">
-        <v>7040376.160066846</v>
+        <v>7040581.651012956</v>
       </c>
       <c r="S25" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3399,22 +3384,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111320023</v>
+        <v>111311509</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>78611</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3423,41 +3408,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>6463</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>590674.5556983197</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R26" t="n">
-        <v>7040630.376315817</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3481,7 +3467,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3491,7 +3477,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3511,22 +3497,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111320025</v>
+        <v>111311401</v>
       </c>
       <c r="B27" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3535,41 +3521,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>590670.6438133246</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R27" t="n">
-        <v>7040626.240984956</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3623,22 +3610,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111320022</v>
+        <v>111305920</v>
       </c>
       <c r="B28" t="n">
-        <v>94134</v>
+        <v>89425</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3651,37 +3638,38 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>53</v>
+        <v>5442</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>590681.5329159837</v>
+        <v>590734.7799036079</v>
       </c>
       <c r="R28" t="n">
-        <v>7040621.185216802</v>
+        <v>7040527.908902652</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3735,22 +3723,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111311281</v>
+        <v>111311410</v>
       </c>
       <c r="B29" t="n">
-        <v>89686</v>
+        <v>56543</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3763,35 +3751,40 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>103021</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>590689.600060009</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R29" t="n">
-        <v>7040479.226922397</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3860,10 +3853,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111308196</v>
+        <v>111311029</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>89590</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3872,25 +3865,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3901,10 +3894,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590607.2776005382</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R30" t="n">
-        <v>7040256.438550681</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3973,10 +3966,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111311190</v>
+        <v>111320024</v>
       </c>
       <c r="B31" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3989,43 +3982,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590571.6374187953</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R31" t="n">
-        <v>7040376.160066846</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S31" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4079,19 +4066,19 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111320029</v>
+        <v>111305463</v>
       </c>
       <c r="B32" t="n">
         <v>89686</v>
@@ -4125,19 +4112,20 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590688.7415075897</v>
+        <v>590730.310987493</v>
       </c>
       <c r="R32" t="n">
-        <v>7040619.60176132</v>
+        <v>7040559.081015749</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4191,19 +4179,19 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111311036</v>
+        <v>111311518</v>
       </c>
       <c r="B33" t="n">
         <v>89686</v>
@@ -4244,10 +4232,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590702.9273836177</v>
+        <v>590714.4880980195</v>
       </c>
       <c r="R33" t="n">
-        <v>7040451.435986779</v>
+        <v>7040485.747725119</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4274,7 +4262,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4284,7 +4272,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4316,7 +4304,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111311065</v>
+        <v>111312274</v>
       </c>
       <c r="B34" t="n">
         <v>89405</v>
@@ -4357,10 +4345,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>590702.9273836177</v>
+        <v>590719.8000455381</v>
       </c>
       <c r="R34" t="n">
-        <v>7040451.435986779</v>
+        <v>7040613.7784966</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4387,7 +4375,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4397,7 +4385,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4429,10 +4417,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111308434</v>
+        <v>111311377</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>90065</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4441,25 +4429,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>898</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4470,10 +4458,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>590592.3607059828</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R35" t="n">
-        <v>7040261.380789872</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4542,10 +4530,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111308527</v>
+        <v>111304912</v>
       </c>
       <c r="B36" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4558,21 +4546,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4583,13 +4571,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>590571.6374187953</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R36" t="n">
-        <v>7040376.160066846</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S36" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4618,7 +4606,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4628,7 +4616,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4643,22 +4631,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111305012</v>
+        <v>111881310</v>
       </c>
       <c r="B37" t="n">
-        <v>89845</v>
+        <v>89559</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4667,42 +4655,41 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1209</v>
+        <v>5442</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>590677.6718517016</v>
+        <v>590739</v>
       </c>
       <c r="R37" t="n">
-        <v>7040615.262823105</v>
+        <v>7040524</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4726,22 +4713,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4756,22 +4733,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111305042</v>
+        <v>111870127</v>
       </c>
       <c r="B38" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4805,17 +4782,17 @@
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>590677.0058343092</v>
+        <v>590710</v>
       </c>
       <c r="R38" t="n">
-        <v>7040607.195673673</v>
+        <v>7040582</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4839,22 +4816,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4869,22 +4836,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111307637</v>
+        <v>111870139</v>
       </c>
       <c r="B39" t="n">
-        <v>94134</v>
+        <v>89979</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4893,42 +4860,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53</v>
+        <v>1209</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>590658.1836587854</v>
+        <v>590710</v>
       </c>
       <c r="R39" t="n">
-        <v>7040277.113733714</v>
+        <v>7040582</v>
       </c>
       <c r="S39" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4952,22 +4919,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4982,22 +4939,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111320026</v>
+        <v>105935011</v>
       </c>
       <c r="B40" t="n">
-        <v>89686</v>
+        <v>89832</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5006,38 +4963,42 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Sträckningen Betåsen - Nässe, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>590728.1019840735</v>
+        <v>590637.3557487996</v>
       </c>
       <c r="R40" t="n">
-        <v>7040573.773426552</v>
+        <v>7040253.715958316</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5064,7 +5025,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5074,7 +5035,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5094,22 +5055,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111320027</v>
+        <v>105935469</v>
       </c>
       <c r="B41" t="n">
-        <v>89686</v>
+        <v>78569</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5122,34 +5083,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Sträckningen Betåsen - Nässe, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>590668.9787260931</v>
+        <v>590630.8282503617</v>
       </c>
       <c r="R41" t="n">
-        <v>7040606.073147954</v>
+        <v>7040278.571975074</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5176,7 +5141,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5186,7 +5151,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5206,22 +5171,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111307853</v>
+        <v>105934953</v>
       </c>
       <c r="B42" t="n">
-        <v>89405</v>
+        <v>56411</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5234,38 +5199,41 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Sträckningen Betåsen - Nässe, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>590640.5765326766</v>
+        <v>590578.5164580145</v>
       </c>
       <c r="R42" t="n">
-        <v>7040250.677298564</v>
+        <v>7040323.143632798</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5289,7 +5257,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5299,7 +5267,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5319,22 +5287,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111311113</v>
+        <v>111308822</v>
       </c>
       <c r="B43" t="n">
-        <v>89369</v>
+        <v>89665</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5343,25 +5311,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5447</v>
+        <v>73</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5444,10 +5412,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111308121</v>
+        <v>111308229</v>
       </c>
       <c r="B44" t="n">
-        <v>90187</v>
+        <v>89686</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5460,21 +5428,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2014</v>
+        <v>658</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5485,10 +5453,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>590607.2776005382</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R44" t="n">
-        <v>7040256.438550681</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5531,11 +5499,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Gammal fruktkropp</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5562,10 +5525,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111305036</v>
+        <v>111308530</v>
       </c>
       <c r="B45" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5574,25 +5537,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5603,13 +5566,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>590677.0058343092</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R45" t="n">
-        <v>7040607.195673673</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5638,7 +5601,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5648,7 +5611,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5663,22 +5626,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111305206</v>
+        <v>111308352</v>
       </c>
       <c r="B46" t="n">
-        <v>89845</v>
+        <v>94134</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5687,25 +5650,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1209</v>
+        <v>53</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5716,10 +5679,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>590706.3868867881</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R46" t="n">
-        <v>7040581.651012956</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5788,10 +5751,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111311509</v>
+        <v>111308963</v>
       </c>
       <c r="B47" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5800,25 +5763,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5829,10 +5792,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>590706.4606926481</v>
+        <v>590582.1749845718</v>
       </c>
       <c r="R47" t="n">
-        <v>7040484.625072884</v>
+        <v>7040273.16502161</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5859,22 +5822,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5901,10 +5864,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111308600</v>
+        <v>111309000</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5917,21 +5880,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5977,7 +5940,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5987,7 +5950,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6014,10 +5977,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111311401</v>
+        <v>111308996</v>
       </c>
       <c r="B49" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6030,21 +5993,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6055,10 +6018,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>590706.4606926481</v>
+        <v>590567.9278508583</v>
       </c>
       <c r="R49" t="n">
-        <v>7040484.625072884</v>
+        <v>7040301.826193022</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6090,7 +6053,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6100,7 +6063,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6127,10 +6090,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111309827</v>
+        <v>111307811</v>
       </c>
       <c r="B50" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6143,21 +6106,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6168,10 +6131,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>590614.0068928505</v>
+        <v>590640.5765326766</v>
       </c>
       <c r="R50" t="n">
-        <v>7040350.534422184</v>
+        <v>7040250.677298564</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6203,7 +6166,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6213,7 +6176,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6240,10 +6203,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111305920</v>
+        <v>111308280</v>
       </c>
       <c r="B51" t="n">
-        <v>89425</v>
+        <v>94134</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6256,21 +6219,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5442</v>
+        <v>53</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6281,10 +6244,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>590734.7799036079</v>
+        <v>590599.2495874113</v>
       </c>
       <c r="R51" t="n">
-        <v>7040527.908902652</v>
+        <v>7040255.316109447</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6353,10 +6316,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111308194</v>
+        <v>111310108</v>
       </c>
       <c r="B52" t="n">
-        <v>78612</v>
+        <v>89425</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6365,25 +6328,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6464</v>
+        <v>5442</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6394,13 +6357,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>590607.2776005382</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R52" t="n">
-        <v>7040256.438550681</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6454,22 +6417,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111311410</v>
+        <v>111308196</v>
       </c>
       <c r="B53" t="n">
-        <v>56543</v>
+        <v>78578</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6482,40 +6445,35 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>590706.4606926481</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R53" t="n">
-        <v>7040484.625072884</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6584,10 +6542,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111311029</v>
+        <v>111311190</v>
       </c>
       <c r="B54" t="n">
-        <v>89590</v>
+        <v>56543</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6596,42 +6554,47 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>48</v>
+        <v>103021</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>590702.9273836177</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R54" t="n">
-        <v>7040451.435986779</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S54" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6685,22 +6648,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111320024</v>
+        <v>111308434</v>
       </c>
       <c r="B55" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6713,37 +6676,38 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>590670.6438133246</v>
+        <v>590592.3607059828</v>
       </c>
       <c r="R55" t="n">
-        <v>7040626.240984956</v>
+        <v>7040261.380789872</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6797,19 +6761,19 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111305463</v>
+        <v>111308527</v>
       </c>
       <c r="B56" t="n">
         <v>89686</v>
@@ -6850,13 +6814,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>590730.310987493</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R56" t="n">
-        <v>7040559.081015749</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6885,7 +6849,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6895,7 +6859,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6910,22 +6874,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111307902</v>
+        <v>111307637</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>94134</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6938,21 +6902,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6963,10 +6927,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>590642.5312889211</v>
+        <v>590658.1836587854</v>
       </c>
       <c r="R57" t="n">
-        <v>7040244.919611955</v>
+        <v>7040277.113733714</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7035,10 +6999,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111311518</v>
+        <v>111307853</v>
       </c>
       <c r="B58" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7051,21 +7015,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7076,10 +7040,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>590714.4880980195</v>
+        <v>590640.5765326766</v>
       </c>
       <c r="R58" t="n">
-        <v>7040485.747725119</v>
+        <v>7040250.677298564</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7106,7 +7070,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7116,7 +7080,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7148,10 +7112,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111310603</v>
+        <v>111311113</v>
       </c>
       <c r="B59" t="n">
-        <v>89755</v>
+        <v>89369</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7160,25 +7124,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1506</v>
+        <v>5447</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7261,10 +7225,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111312274</v>
+        <v>111308121</v>
       </c>
       <c r="B60" t="n">
-        <v>89405</v>
+        <v>90187</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7277,21 +7241,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1202</v>
+        <v>2014</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7302,10 +7266,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>590719.8000455381</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R60" t="n">
-        <v>7040613.7784966</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7332,7 +7296,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7342,12 +7306,17 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Gammal fruktkropp</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7374,7 +7343,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111308178</v>
+        <v>111308600</v>
       </c>
       <c r="B61" t="n">
         <v>78578</v>
@@ -7415,13 +7384,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>590604.1361025569</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R61" t="n">
-        <v>7040272.447424728</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S61" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7450,7 +7419,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7460,7 +7429,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7475,19 +7444,19 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111310220</v>
+        <v>111309827</v>
       </c>
       <c r="B62" t="n">
         <v>77515</v>
@@ -7528,13 +7497,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>590571.6374187953</v>
+        <v>590614.0068928505</v>
       </c>
       <c r="R62" t="n">
-        <v>7040376.160066846</v>
+        <v>7040350.534422184</v>
       </c>
       <c r="S62" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7563,7 +7532,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7573,7 +7542,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7588,22 +7557,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111308606</v>
+        <v>111308194</v>
       </c>
       <c r="B63" t="n">
-        <v>78579</v>
+        <v>78612</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7612,25 +7581,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2081</v>
+        <v>6464</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7641,13 +7610,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>590571.6374187953</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R63" t="n">
-        <v>7040376.160066846</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S63" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7676,7 +7645,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7686,7 +7655,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7701,22 +7670,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111311377</v>
+        <v>111307902</v>
       </c>
       <c r="B64" t="n">
-        <v>90065</v>
+        <v>89405</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7725,25 +7694,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>898</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7754,10 +7723,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>590706.4606926481</v>
+        <v>590642.5312889211</v>
       </c>
       <c r="R64" t="n">
-        <v>7040484.625072884</v>
+        <v>7040244.919611955</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7826,10 +7795,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111304912</v>
+        <v>111310603</v>
       </c>
       <c r="B65" t="n">
-        <v>89405</v>
+        <v>89755</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7838,25 +7807,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1202</v>
+        <v>1506</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7867,13 +7836,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>590678.899579621</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R65" t="n">
-        <v>7040619.321836494</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S65" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7927,22 +7896,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111310851</v>
+        <v>111308178</v>
       </c>
       <c r="B66" t="n">
-        <v>89558</v>
+        <v>78578</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7951,25 +7920,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1503</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7980,13 +7949,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>590571.6374187953</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R66" t="n">
-        <v>7040376.160066846</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S66" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8040,22 +8009,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111870990</v>
+        <v>111310220</v>
       </c>
       <c r="B67" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8064,39 +8033,39 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>590570</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R67" t="n">
-        <v>7040376</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8123,12 +8092,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8155,10 +8134,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111871585</v>
+        <v>111308606</v>
       </c>
       <c r="B68" t="n">
-        <v>89405</v>
+        <v>78579</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8171,35 +8150,35 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>590630</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R68" t="n">
-        <v>7040267</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8226,12 +8205,22 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8258,10 +8247,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111870830</v>
+        <v>111310851</v>
       </c>
       <c r="B69" t="n">
-        <v>90678</v>
+        <v>89558</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8270,39 +8259,39 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4366</v>
+        <v>1503</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>590558</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R69" t="n">
-        <v>7040400</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8329,12 +8318,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8361,10 +8360,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111870127</v>
+        <v>111870830</v>
       </c>
       <c r="B70" t="n">
-        <v>89405</v>
+        <v>90812</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8373,25 +8372,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1202</v>
+        <v>4366</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8402,10 +8401,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>590710</v>
+        <v>590558</v>
       </c>
       <c r="R70" t="n">
-        <v>7040582</v>
+        <v>7040400</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8464,10 +8463,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111881310</v>
+        <v>111870990</v>
       </c>
       <c r="B71" t="n">
-        <v>89425</v>
+        <v>90800</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8476,38 +8475,39 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5442</v>
+        <v>4364</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>590739</v>
+        <v>590570</v>
       </c>
       <c r="R71" t="n">
-        <v>7040524</v>
+        <v>7040376</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8566,10 +8566,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111870139</v>
+        <v>111881322</v>
       </c>
       <c r="B72" t="n">
-        <v>89845</v>
+        <v>56446</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8578,39 +8578,43 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1209</v>
+        <v>100049</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>590710</v>
+        <v>590615</v>
       </c>
       <c r="R72" t="n">
-        <v>7040582</v>
+        <v>7040279</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8669,10 +8673,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111881322</v>
+        <v>111871585</v>
       </c>
       <c r="B73" t="n">
-        <v>56414</v>
+        <v>89539</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8685,39 +8689,35 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>590615</v>
+        <v>590630</v>
       </c>
       <c r="R73" t="n">
-        <v>7040279</v>
+        <v>7040267</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>

--- a/artfynd/A 4375-2022.xlsx
+++ b/artfynd/A 4375-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105935360</v>
+        <v>105935011</v>
       </c>
       <c r="B2" t="n">
-        <v>78595</v>
+        <v>89832</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6461</v>
+        <v>1209</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>590745.5700578701</v>
+        <v>590637.3557487996</v>
       </c>
       <c r="R2" t="n">
-        <v>7040542.077127401</v>
+        <v>7040253.715958316</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105935361</v>
+        <v>105935469</v>
       </c>
       <c r="B3" t="n">
-        <v>78595</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6461</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>590755.6192459129</v>
+        <v>590630.8282503617</v>
       </c>
       <c r="R3" t="n">
-        <v>7040472.162502382</v>
+        <v>7040278.571975074</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111310942</v>
+        <v>105935360</v>
       </c>
       <c r="B4" t="n">
-        <v>89845</v>
+        <v>78595</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,42 +924,45 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>6461</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>(L.) Torss.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Sträckningen Betåsen - Nässe, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>590675.2966033132</v>
+        <v>590745.5700578701</v>
       </c>
       <c r="R4" t="n">
-        <v>7040478.372989829</v>
+        <v>7040542.077127401</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -983,22 +986,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1013,22 +1016,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111310228</v>
+        <v>105935361</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>78595</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,42 +1040,45 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6461</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>(L.) Torss.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Sträckningen Betåsen - Nässe, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>590617.0527943866</v>
+        <v>590755.6192459129</v>
       </c>
       <c r="R5" t="n">
-        <v>7040369.401581543</v>
+        <v>7040472.162502382</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1096,27 +1102,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:34</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1131,22 +1132,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111311395</v>
+        <v>105934953</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>56411</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,38 +1160,41 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Sträckningen Betåsen - Nässe, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>590706.4606926481</v>
+        <v>590578.5164580145</v>
       </c>
       <c r="R6" t="n">
-        <v>7040484.625072884</v>
+        <v>7040323.143632798</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1214,7 +1218,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1224,7 +1228,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1244,22 +1248,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Väg och Miljö AB</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111304960</v>
+        <v>111308822</v>
       </c>
       <c r="B7" t="n">
-        <v>89686</v>
+        <v>89665</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,21 +1276,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>73</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1297,13 +1301,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>590678.899579621</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R7" t="n">
-        <v>7040619.321836494</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1357,19 +1361,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111311225</v>
+        <v>111308229</v>
       </c>
       <c r="B8" t="n">
         <v>89686</v>
@@ -1410,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>590720.7464700924</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R8" t="n">
-        <v>7040454.625792346</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1482,10 +1486,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111310897</v>
+        <v>111310942</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,25 +1498,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1527,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>590681.7124013144</v>
+        <v>590675.2966033132</v>
       </c>
       <c r="R9" t="n">
-        <v>7040473.189748496</v>
+        <v>7040478.372989829</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1595,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111304897</v>
+        <v>111310228</v>
       </c>
       <c r="B10" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1607,25 +1611,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1636,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>590678.899579621</v>
+        <v>590617.0527943866</v>
       </c>
       <c r="R10" t="n">
-        <v>7040619.321836494</v>
+        <v>7040369.401581543</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1681,7 +1685,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1708,10 +1717,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111306233</v>
+        <v>111308530</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1724,21 +1733,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1749,13 +1758,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>590615.2976031969</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R11" t="n">
-        <v>7040415.40842591</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1784,7 +1793,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1794,7 +1803,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1809,22 +1818,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111320028</v>
+        <v>111311395</v>
       </c>
       <c r="B12" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,37 +1846,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>590670.6438133246</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R12" t="n">
-        <v>7040626.240984956</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1921,22 +1931,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111320023</v>
+        <v>111304960</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,37 +1959,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>590674.5556983197</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R13" t="n">
-        <v>7040630.376315817</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2033,22 +2044,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111320025</v>
+        <v>111311225</v>
       </c>
       <c r="B14" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2057,41 +2068,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>590670.6438133246</v>
+        <v>590720.7464700924</v>
       </c>
       <c r="R14" t="n">
-        <v>7040626.240984956</v>
+        <v>7040454.625792346</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2145,19 +2157,19 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111320022</v>
+        <v>111308352</v>
       </c>
       <c r="B15" t="n">
         <v>94134</v>
@@ -2191,19 +2203,20 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>590681.5329159837</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R15" t="n">
-        <v>7040621.185216802</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2257,22 +2270,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111311281</v>
+        <v>111310897</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2285,21 +2298,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2310,10 +2323,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>590689.600060009</v>
+        <v>590681.7124013144</v>
       </c>
       <c r="R16" t="n">
-        <v>7040479.226922397</v>
+        <v>7040473.189748496</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2345,7 +2358,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2355,7 +2368,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2382,10 +2395,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111320029</v>
+        <v>111308963</v>
       </c>
       <c r="B17" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2398,37 +2411,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>590688.7415075897</v>
+        <v>590582.1749845718</v>
       </c>
       <c r="R17" t="n">
-        <v>7040619.60176132</v>
+        <v>7040273.16502161</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2457,7 +2471,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2467,7 +2481,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2482,22 +2496,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111311036</v>
+        <v>111304897</v>
       </c>
       <c r="B18" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2506,25 +2520,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2535,10 +2549,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590702.9273836177</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R18" t="n">
-        <v>7040451.435986779</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2607,10 +2621,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111311065</v>
+        <v>111306233</v>
       </c>
       <c r="B19" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2623,21 +2637,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2648,10 +2662,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590702.9273836177</v>
+        <v>590615.2976031969</v>
       </c>
       <c r="R19" t="n">
-        <v>7040451.435986779</v>
+        <v>7040415.40842591</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2720,10 +2734,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111305012</v>
+        <v>111320028</v>
       </c>
       <c r="B20" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2732,42 +2746,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>590677.6718517016</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R20" t="n">
-        <v>7040615.262823105</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2821,22 +2834,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111305042</v>
+        <v>111309000</v>
       </c>
       <c r="B21" t="n">
-        <v>89405</v>
+        <v>94134</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2849,21 +2862,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2874,13 +2887,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590677.0058343092</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R21" t="n">
-        <v>7040607.195673673</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2934,22 +2947,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111320026</v>
+        <v>111308996</v>
       </c>
       <c r="B22" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2962,37 +2975,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>590728.1019840735</v>
+        <v>590567.9278508583</v>
       </c>
       <c r="R22" t="n">
-        <v>7040573.773426552</v>
+        <v>7040301.826193022</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3021,7 +3035,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3031,7 +3045,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3046,19 +3060,19 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111320027</v>
+        <v>111307811</v>
       </c>
       <c r="B23" t="n">
         <v>89686</v>
@@ -3092,19 +3106,20 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>590668.9787260931</v>
+        <v>590640.5765326766</v>
       </c>
       <c r="R23" t="n">
-        <v>7040606.073147954</v>
+        <v>7040250.677298564</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3158,22 +3173,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111305036</v>
+        <v>111308280</v>
       </c>
       <c r="B24" t="n">
-        <v>89845</v>
+        <v>94134</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3182,25 +3197,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1209</v>
+        <v>53</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3211,10 +3226,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>590677.0058343092</v>
+        <v>590599.2495874113</v>
       </c>
       <c r="R24" t="n">
-        <v>7040607.195673673</v>
+        <v>7040255.316109447</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3283,10 +3298,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111305206</v>
+        <v>111310108</v>
       </c>
       <c r="B25" t="n">
-        <v>89845</v>
+        <v>89425</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3295,25 +3310,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1209</v>
+        <v>5442</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3324,13 +3339,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>590706.3868867881</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R25" t="n">
-        <v>7040581.651012956</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3384,22 +3399,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111311509</v>
+        <v>111320023</v>
       </c>
       <c r="B26" t="n">
-        <v>78611</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3408,42 +3423,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6463</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>590706.4606926481</v>
+        <v>590674.5556983197</v>
       </c>
       <c r="R26" t="n">
-        <v>7040484.625072884</v>
+        <v>7040630.376315817</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3467,7 +3481,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3477,7 +3491,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3497,22 +3511,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111311401</v>
+        <v>111320025</v>
       </c>
       <c r="B27" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3521,42 +3535,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>590706.4606926481</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R27" t="n">
-        <v>7040484.625072884</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3610,22 +3623,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111305920</v>
+        <v>111320022</v>
       </c>
       <c r="B28" t="n">
-        <v>89425</v>
+        <v>94134</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3638,38 +3651,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5442</v>
+        <v>53</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>590734.7799036079</v>
+        <v>590681.5329159837</v>
       </c>
       <c r="R28" t="n">
-        <v>7040527.908902652</v>
+        <v>7040621.185216802</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3723,22 +3735,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111311410</v>
+        <v>111311281</v>
       </c>
       <c r="B29" t="n">
-        <v>56543</v>
+        <v>89686</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3751,40 +3763,35 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>590706.4606926481</v>
+        <v>590689.600060009</v>
       </c>
       <c r="R29" t="n">
-        <v>7040484.625072884</v>
+        <v>7040479.226922397</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3853,10 +3860,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111311029</v>
+        <v>111308196</v>
       </c>
       <c r="B30" t="n">
-        <v>89590</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3865,25 +3872,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>48</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3894,10 +3901,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590702.9273836177</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R30" t="n">
-        <v>7040451.435986779</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3966,10 +3973,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111320024</v>
+        <v>111311190</v>
       </c>
       <c r="B31" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3982,37 +3989,43 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Loka, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590670.6438133246</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R31" t="n">
-        <v>7040626.240984956</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4066,19 +4079,19 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111305463</v>
+        <v>111320029</v>
       </c>
       <c r="B32" t="n">
         <v>89686</v>
@@ -4112,20 +4125,19 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590730.310987493</v>
+        <v>590688.7415075897</v>
       </c>
       <c r="R32" t="n">
-        <v>7040559.081015749</v>
+        <v>7040619.60176132</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4179,19 +4191,19 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111311518</v>
+        <v>111311036</v>
       </c>
       <c r="B33" t="n">
         <v>89686</v>
@@ -4232,10 +4244,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590714.4880980195</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R33" t="n">
-        <v>7040485.747725119</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4262,7 +4274,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4272,7 +4284,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4304,7 +4316,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111312274</v>
+        <v>111311065</v>
       </c>
       <c r="B34" t="n">
         <v>89405</v>
@@ -4345,10 +4357,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>590719.8000455381</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R34" t="n">
-        <v>7040613.7784966</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4375,7 +4387,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4385,7 +4397,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4417,10 +4429,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111311377</v>
+        <v>111308434</v>
       </c>
       <c r="B35" t="n">
-        <v>90065</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4429,25 +4441,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>898</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4458,10 +4470,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>590706.4606926481</v>
+        <v>590592.3607059828</v>
       </c>
       <c r="R35" t="n">
-        <v>7040484.625072884</v>
+        <v>7040261.380789872</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4530,10 +4542,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111304912</v>
+        <v>111308527</v>
       </c>
       <c r="B36" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4546,21 +4558,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4571,13 +4583,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>590678.899579621</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R36" t="n">
-        <v>7040619.321836494</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4606,7 +4618,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4616,7 +4628,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4631,22 +4643,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111881310</v>
+        <v>111305012</v>
       </c>
       <c r="B37" t="n">
-        <v>89559</v>
+        <v>89845</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4655,41 +4667,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5442</v>
+        <v>1209</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>590739</v>
+        <v>590677.6718517016</v>
       </c>
       <c r="R37" t="n">
-        <v>7040524</v>
+        <v>7040615.262823105</v>
       </c>
       <c r="S37" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4713,12 +4726,22 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4733,22 +4756,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111870127</v>
+        <v>111305042</v>
       </c>
       <c r="B38" t="n">
-        <v>89539</v>
+        <v>89405</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4782,17 +4805,17 @@
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>590710</v>
+        <v>590677.0058343092</v>
       </c>
       <c r="R38" t="n">
-        <v>7040582</v>
+        <v>7040607.195673673</v>
       </c>
       <c r="S38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4816,12 +4839,22 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4836,22 +4869,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111870139</v>
+        <v>111307637</v>
       </c>
       <c r="B39" t="n">
-        <v>89979</v>
+        <v>94134</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4860,42 +4893,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1209</v>
+        <v>53</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>590710</v>
+        <v>590658.1836587854</v>
       </c>
       <c r="R39" t="n">
-        <v>7040582</v>
+        <v>7040277.113733714</v>
       </c>
       <c r="S39" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4919,12 +4952,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4939,22 +4982,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>105935011</v>
+        <v>111320026</v>
       </c>
       <c r="B40" t="n">
-        <v>89832</v>
+        <v>89686</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4963,42 +5006,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Sträckningen Betåsen - Nässe, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>590637.3557487996</v>
+        <v>590728.1019840735</v>
       </c>
       <c r="R40" t="n">
-        <v>7040253.715958316</v>
+        <v>7040573.773426552</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5025,7 +5064,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5035,7 +5074,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5055,22 +5094,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>105935469</v>
+        <v>111320027</v>
       </c>
       <c r="B41" t="n">
-        <v>78569</v>
+        <v>89686</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5083,38 +5122,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Sträckningen Betåsen - Nässe, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>590630.8282503617</v>
+        <v>590668.9787260931</v>
       </c>
       <c r="R41" t="n">
-        <v>7040278.571975074</v>
+        <v>7040606.073147954</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5141,7 +5176,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5151,7 +5186,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5171,22 +5206,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>105934953</v>
+        <v>111307853</v>
       </c>
       <c r="B42" t="n">
-        <v>56411</v>
+        <v>89405</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5199,41 +5234,38 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Sträckningen Betåsen - Nässe, Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>590578.5164580145</v>
+        <v>590640.5765326766</v>
       </c>
       <c r="R42" t="n">
-        <v>7040323.143632798</v>
+        <v>7040250.677298564</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5257,7 +5289,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5267,7 +5299,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5287,22 +5319,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Väg och Miljö AB</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111308822</v>
+        <v>111311113</v>
       </c>
       <c r="B43" t="n">
-        <v>89665</v>
+        <v>89369</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5311,25 +5343,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>73</v>
+        <v>5447</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5412,10 +5444,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111308229</v>
+        <v>111308121</v>
       </c>
       <c r="B44" t="n">
-        <v>89686</v>
+        <v>90187</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5428,21 +5460,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>658</v>
+        <v>2014</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5453,10 +5485,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>590604.1361025569</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R44" t="n">
-        <v>7040272.447424728</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5499,6 +5531,11 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Gammal fruktkropp</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5525,10 +5562,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111308530</v>
+        <v>111305036</v>
       </c>
       <c r="B45" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5537,25 +5574,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5566,13 +5603,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>590571.6374187953</v>
+        <v>590677.0058343092</v>
       </c>
       <c r="R45" t="n">
-        <v>7040376.160066846</v>
+        <v>7040607.195673673</v>
       </c>
       <c r="S45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5601,7 +5638,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5611,7 +5648,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5626,22 +5663,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111308352</v>
+        <v>111305206</v>
       </c>
       <c r="B46" t="n">
-        <v>94134</v>
+        <v>89845</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5650,25 +5687,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53</v>
+        <v>1209</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5679,10 +5716,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>590604.1361025569</v>
+        <v>590706.3868867881</v>
       </c>
       <c r="R46" t="n">
-        <v>7040272.447424728</v>
+        <v>7040581.651012956</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5751,10 +5788,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111308963</v>
+        <v>111311509</v>
       </c>
       <c r="B47" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5763,25 +5800,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5792,10 +5829,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>590582.1749845718</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R47" t="n">
-        <v>7040273.16502161</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5822,22 +5859,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5864,10 +5901,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111309000</v>
+        <v>111308600</v>
       </c>
       <c r="B48" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5880,21 +5917,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5940,7 +5977,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5950,7 +5987,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5977,10 +6014,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111308996</v>
+        <v>111311401</v>
       </c>
       <c r="B49" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5993,21 +6030,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6018,10 +6055,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>590567.9278508583</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R49" t="n">
-        <v>7040301.826193022</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6053,7 +6090,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6063,7 +6100,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6090,10 +6127,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111307811</v>
+        <v>111309827</v>
       </c>
       <c r="B50" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6106,21 +6143,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6131,10 +6168,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>590640.5765326766</v>
+        <v>590614.0068928505</v>
       </c>
       <c r="R50" t="n">
-        <v>7040250.677298564</v>
+        <v>7040350.534422184</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6166,7 +6203,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6176,7 +6213,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6203,10 +6240,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111308280</v>
+        <v>111305920</v>
       </c>
       <c r="B51" t="n">
-        <v>94134</v>
+        <v>89425</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6219,21 +6256,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>53</v>
+        <v>5442</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6244,10 +6281,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>590599.2495874113</v>
+        <v>590734.7799036079</v>
       </c>
       <c r="R51" t="n">
-        <v>7040255.316109447</v>
+        <v>7040527.908902652</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6316,10 +6353,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111310108</v>
+        <v>111308194</v>
       </c>
       <c r="B52" t="n">
-        <v>89425</v>
+        <v>78612</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6328,25 +6365,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5442</v>
+        <v>6464</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6357,13 +6394,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>590571.6374187953</v>
+        <v>590607.2776005382</v>
       </c>
       <c r="R52" t="n">
-        <v>7040376.160066846</v>
+        <v>7040256.438550681</v>
       </c>
       <c r="S52" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6417,22 +6454,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111308196</v>
+        <v>111311410</v>
       </c>
       <c r="B53" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6445,35 +6482,40 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>590607.2776005382</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R53" t="n">
-        <v>7040256.438550681</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6542,10 +6584,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111311190</v>
+        <v>111311029</v>
       </c>
       <c r="B54" t="n">
-        <v>56543</v>
+        <v>89590</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6554,47 +6596,42 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>103021</v>
+        <v>48</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>590571.6374187953</v>
+        <v>590702.9273836177</v>
       </c>
       <c r="R54" t="n">
-        <v>7040376.160066846</v>
+        <v>7040451.435986779</v>
       </c>
       <c r="S54" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6648,22 +6685,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111308434</v>
+        <v>111320024</v>
       </c>
       <c r="B55" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6676,38 +6713,37 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Loka, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>590592.3607059828</v>
+        <v>590670.6438133246</v>
       </c>
       <c r="R55" t="n">
-        <v>7040261.380789872</v>
+        <v>7040626.240984956</v>
       </c>
       <c r="S55" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6761,19 +6797,19 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111308527</v>
+        <v>111305463</v>
       </c>
       <c r="B56" t="n">
         <v>89686</v>
@@ -6814,13 +6850,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>590571.6374187953</v>
+        <v>590730.310987493</v>
       </c>
       <c r="R56" t="n">
-        <v>7040376.160066846</v>
+        <v>7040559.081015749</v>
       </c>
       <c r="S56" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6849,7 +6885,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6859,7 +6895,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6874,22 +6910,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111307637</v>
+        <v>111307902</v>
       </c>
       <c r="B57" t="n">
-        <v>94134</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6902,21 +6938,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6927,10 +6963,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>590658.1836587854</v>
+        <v>590642.5312889211</v>
       </c>
       <c r="R57" t="n">
-        <v>7040277.113733714</v>
+        <v>7040244.919611955</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -6999,10 +7035,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111307853</v>
+        <v>111311518</v>
       </c>
       <c r="B58" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7015,21 +7051,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7040,10 +7076,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>590640.5765326766</v>
+        <v>590714.4880980195</v>
       </c>
       <c r="R58" t="n">
-        <v>7040250.677298564</v>
+        <v>7040485.747725119</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7070,7 +7106,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7080,7 +7116,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7112,10 +7148,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111311113</v>
+        <v>111310603</v>
       </c>
       <c r="B59" t="n">
-        <v>89369</v>
+        <v>89755</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7124,25 +7160,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5447</v>
+        <v>1506</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7225,10 +7261,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111308121</v>
+        <v>111312274</v>
       </c>
       <c r="B60" t="n">
-        <v>90187</v>
+        <v>89405</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7241,21 +7277,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2014</v>
+        <v>1202</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7266,10 +7302,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>590607.2776005382</v>
+        <v>590719.8000455381</v>
       </c>
       <c r="R60" t="n">
-        <v>7040256.438550681</v>
+        <v>7040613.7784966</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7296,7 +7332,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7306,17 +7342,12 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Gammal fruktkropp</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7343,7 +7374,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111308600</v>
+        <v>111308178</v>
       </c>
       <c r="B61" t="n">
         <v>78578</v>
@@ -7384,13 +7415,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>590571.6374187953</v>
+        <v>590604.1361025569</v>
       </c>
       <c r="R61" t="n">
-        <v>7040376.160066846</v>
+        <v>7040272.447424728</v>
       </c>
       <c r="S61" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7419,7 +7450,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7429,7 +7460,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7444,19 +7475,19 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111309827</v>
+        <v>111310220</v>
       </c>
       <c r="B62" t="n">
         <v>77515</v>
@@ -7497,13 +7528,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>590614.0068928505</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R62" t="n">
-        <v>7040350.534422184</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S62" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7532,7 +7563,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7542,7 +7573,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7557,22 +7588,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111308194</v>
+        <v>111308606</v>
       </c>
       <c r="B63" t="n">
-        <v>78612</v>
+        <v>78579</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7581,25 +7612,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6464</v>
+        <v>2081</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7610,13 +7641,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>590607.2776005382</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R63" t="n">
-        <v>7040256.438550681</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S63" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7645,7 +7676,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7655,7 +7686,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7670,22 +7701,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111307902</v>
+        <v>111311377</v>
       </c>
       <c r="B64" t="n">
-        <v>89405</v>
+        <v>90065</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7694,25 +7725,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1202</v>
+        <v>898</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7723,10 +7754,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>590642.5312889211</v>
+        <v>590706.4606926481</v>
       </c>
       <c r="R64" t="n">
-        <v>7040244.919611955</v>
+        <v>7040484.625072884</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7795,10 +7826,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111310603</v>
+        <v>111304912</v>
       </c>
       <c r="B65" t="n">
-        <v>89755</v>
+        <v>89405</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7807,25 +7838,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1506</v>
+        <v>1202</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7836,13 +7867,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>590571.6374187953</v>
+        <v>590678.899579621</v>
       </c>
       <c r="R65" t="n">
-        <v>7040376.160066846</v>
+        <v>7040619.321836494</v>
       </c>
       <c r="S65" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7896,22 +7927,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111308178</v>
+        <v>111310851</v>
       </c>
       <c r="B66" t="n">
-        <v>78578</v>
+        <v>89558</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7920,25 +7951,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>1503</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7949,13 +7980,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>590604.1361025569</v>
+        <v>590571.6374187953</v>
       </c>
       <c r="R66" t="n">
-        <v>7040272.447424728</v>
+        <v>7040376.160066846</v>
       </c>
       <c r="S66" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8009,22 +8040,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111310220</v>
+        <v>111870830</v>
       </c>
       <c r="B67" t="n">
-        <v>77515</v>
+        <v>90812</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8033,39 +8064,39 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>590571.6374187953</v>
+        <v>590558</v>
       </c>
       <c r="R67" t="n">
-        <v>7040376.160066846</v>
+        <v>7040400</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8092,22 +8123,12 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8134,10 +8155,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111308606</v>
+        <v>111870990</v>
       </c>
       <c r="B68" t="n">
-        <v>78579</v>
+        <v>90800</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8146,39 +8167,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2081</v>
+        <v>4364</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>590571.6374187953</v>
+        <v>590570</v>
       </c>
       <c r="R68" t="n">
-        <v>7040376.160066846</v>
+        <v>7040376</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8205,22 +8226,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>13:39</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>13:39</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8247,10 +8258,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111310851</v>
+        <v>111881310</v>
       </c>
       <c r="B69" t="n">
-        <v>89558</v>
+        <v>89559</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8259,39 +8270,38 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1503</v>
+        <v>5442</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>590571.6374187953</v>
+        <v>590739</v>
       </c>
       <c r="R69" t="n">
-        <v>7040376.160066846</v>
+        <v>7040524</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8318,22 +8328,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8360,10 +8360,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111870830</v>
+        <v>111870127</v>
       </c>
       <c r="B70" t="n">
-        <v>90812</v>
+        <v>89539</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8372,25 +8372,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4366</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8401,10 +8401,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>590558</v>
+        <v>590710</v>
       </c>
       <c r="R70" t="n">
-        <v>7040400</v>
+        <v>7040582</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8463,10 +8463,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111870990</v>
+        <v>111881322</v>
       </c>
       <c r="B71" t="n">
-        <v>90800</v>
+        <v>56446</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8475,39 +8475,43 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Valforsen (Valforsen), Ång</t>
+          <t>Valforsen, Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>590570</v>
+        <v>590615</v>
       </c>
       <c r="R71" t="n">
-        <v>7040376</v>
+        <v>7040279</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8566,10 +8570,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111881322</v>
+        <v>111871585</v>
       </c>
       <c r="B72" t="n">
-        <v>56446</v>
+        <v>89539</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8582,39 +8586,35 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Valforsen, Ång</t>
+          <t>Valforsen (Valforsen), Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>590615</v>
+        <v>590630</v>
       </c>
       <c r="R72" t="n">
-        <v>7040279</v>
+        <v>7040267</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8673,10 +8673,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111871585</v>
+        <v>111870139</v>
       </c>
       <c r="B73" t="n">
-        <v>89539</v>
+        <v>89979</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8685,25 +8685,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8714,10 +8714,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>590630</v>
+        <v>590710</v>
       </c>
       <c r="R73" t="n">
-        <v>7040267</v>
+        <v>7040582</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
